--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.010313643421926</v>
+        <v>0.9992840340062283</v>
       </c>
       <c r="D3">
-        <v>0.9988668487488201</v>
+        <v>0.9878296850411552</v>
       </c>
       <c r="E3">
-        <v>0.9957608877534186</v>
+        <v>1.001433247393378</v>
       </c>
       <c r="F3">
         <v>1.010313643421926</v>
       </c>
       <c r="G3">
-        <v>0.9878296850411552</v>
+        <v>1.010313643421926</v>
       </c>
       <c r="H3">
-        <v>1.001433247393378</v>
+        <v>0.9988668487488201</v>
       </c>
       <c r="I3">
-        <v>0.9992840340062283</v>
+        <v>0.9988668487488201</v>
       </c>
       <c r="J3">
-        <v>0.9988668487488201</v>
+        <v>0.9957608877534186</v>
       </c>
       <c r="K3">
         <v>1.010313643421926</v>
@@ -728,7 +680,7 @@
         <v>0.9989147243941544</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.020327310461459</v>
+        <v>0.9986395087887119</v>
       </c>
       <c r="D4">
-        <v>0.997589033456908</v>
+        <v>0.9761204295953141</v>
       </c>
       <c r="E4">
-        <v>0.9916335107254579</v>
+        <v>1.002724914057606</v>
       </c>
       <c r="F4">
         <v>1.020327310461459</v>
       </c>
       <c r="G4">
-        <v>0.9761204295953141</v>
+        <v>1.020327310461459</v>
       </c>
       <c r="H4">
-        <v>1.002724914057606</v>
+        <v>0.997589033456908</v>
       </c>
       <c r="I4">
-        <v>0.9986395087887119</v>
+        <v>0.997589033456908</v>
       </c>
       <c r="J4">
-        <v>0.997589033456908</v>
+        <v>0.9916335107254579</v>
       </c>
       <c r="K4">
         <v>1.020327310461459</v>
@@ -790,7 +742,7 @@
         <v>0.9978391178475761</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.036544086658786</v>
+        <v>0.997194255252568</v>
       </c>
       <c r="D5">
-        <v>0.9971226400129224</v>
+        <v>0.9570653835116948</v>
       </c>
       <c r="E5">
-        <v>0.9850024173647374</v>
+        <v>1.005238073061536</v>
       </c>
       <c r="F5">
         <v>1.036544086658786</v>
       </c>
       <c r="G5">
-        <v>0.9570653835116948</v>
+        <v>1.036544086658786</v>
       </c>
       <c r="H5">
-        <v>1.005238073061536</v>
+        <v>0.9971226400129226</v>
       </c>
       <c r="I5">
-        <v>0.9971942552525678</v>
+        <v>0.9971226400129226</v>
       </c>
       <c r="J5">
-        <v>0.9971226400129224</v>
+        <v>0.9850024173647374</v>
       </c>
       <c r="K5">
         <v>1.036544086658786</v>
@@ -840,7 +792,7 @@
         <v>1.006223048012149</v>
       </c>
       <c r="Q5">
-        <v>1.006223048012148</v>
+        <v>1.006223048012149</v>
       </c>
       <c r="R5">
         <v>1.013803307673808</v>
@@ -849,10 +801,10 @@
         <v>1.013803307673808</v>
       </c>
       <c r="T5">
-        <v>0.9963611426437072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9963611426437073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.054306147978222</v>
+        <v>0.9950493389529582</v>
       </c>
       <c r="D6">
-        <v>0.9969158964927511</v>
+        <v>0.9395788043893717</v>
       </c>
       <c r="E6">
-        <v>0.9799850216717438</v>
+        <v>1.007758021776985</v>
       </c>
       <c r="F6">
         <v>1.054306147978222</v>
       </c>
       <c r="G6">
-        <v>0.9395788043893717</v>
+        <v>1.054306147978222</v>
       </c>
       <c r="H6">
-        <v>1.007758021776985</v>
+        <v>0.9969158964927514</v>
       </c>
       <c r="I6">
-        <v>0.9950493389529582</v>
+        <v>0.9969158964927514</v>
       </c>
       <c r="J6">
-        <v>0.9969158964927511</v>
+        <v>0.9799850216717438</v>
       </c>
       <c r="K6">
         <v>1.054306147978222</v>
@@ -890,10 +842,10 @@
         <v>0.9799850216717438</v>
       </c>
       <c r="M6">
-        <v>0.9884504590822475</v>
+        <v>0.9884504590822476</v>
       </c>
       <c r="N6">
-        <v>0.9884504590822475</v>
+        <v>0.9884504590822476</v>
       </c>
       <c r="O6">
         <v>0.9948863133138269</v>
@@ -902,7 +854,7 @@
         <v>1.010402355380906</v>
       </c>
       <c r="Q6">
-        <v>1.010402355380905</v>
+        <v>1.010402355380906</v>
       </c>
       <c r="R6">
         <v>1.021378303530235</v>
@@ -911,10 +863,10 @@
         <v>1.021378303530235</v>
       </c>
       <c r="T6">
-        <v>0.9955988718770054</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9955988718770055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,31 +874,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9995486872504211</v>
+        <v>0.9998830707076818</v>
       </c>
       <c r="D7">
+        <v>1.000694579872367</v>
+      </c>
+      <c r="E7">
+        <v>1.000019750360145</v>
+      </c>
+      <c r="F7">
+        <v>0.9995486872504216</v>
+      </c>
+      <c r="G7">
+        <v>0.9995486872504216</v>
+      </c>
+      <c r="H7">
         <v>1.000784820436869</v>
       </c>
-      <c r="E7">
+      <c r="I7">
+        <v>1.000784820436869</v>
+      </c>
+      <c r="J7">
         <v>1.000124776338551</v>
       </c>
-      <c r="F7">
-        <v>0.9995486872504211</v>
-      </c>
-      <c r="G7">
-        <v>1.000694579872367</v>
-      </c>
-      <c r="H7">
-        <v>1.000019750360145</v>
-      </c>
-      <c r="I7">
-        <v>0.9998830707076815</v>
-      </c>
-      <c r="J7">
-        <v>1.000784820436869</v>
-      </c>
       <c r="K7">
-        <v>0.9995486872504211</v>
+        <v>0.9995486872504216</v>
       </c>
       <c r="L7">
         <v>1.000124776338551</v>
@@ -976,7 +928,7 @@
         <v>1.000175947494339</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +936,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999611358474595</v>
+        <v>0.999791856583333</v>
       </c>
       <c r="D8">
-        <v>1.001386073157658</v>
+        <v>1.001586014349713</v>
       </c>
       <c r="E8">
+        <v>0.9998161643941119</v>
+      </c>
+      <c r="F8">
+        <v>0.9996113584745954</v>
+      </c>
+      <c r="G8">
+        <v>0.9996113584745954</v>
+      </c>
+      <c r="H8">
+        <v>1.001386073157659</v>
+      </c>
+      <c r="I8">
+        <v>1.001386073157659</v>
+      </c>
+      <c r="J8">
         <v>1.000170066611662</v>
       </c>
-      <c r="F8">
-        <v>0.999611358474595</v>
-      </c>
-      <c r="G8">
-        <v>1.001586014349714</v>
-      </c>
-      <c r="H8">
-        <v>0.9998161643941115</v>
-      </c>
-      <c r="I8">
-        <v>0.9997918565833332</v>
-      </c>
-      <c r="J8">
-        <v>1.001386073157658</v>
-      </c>
       <c r="K8">
-        <v>0.999611358474595</v>
+        <v>0.9996113584745954</v>
       </c>
       <c r="L8">
         <v>1.000170066611662</v>
       </c>
       <c r="M8">
-        <v>1.00077806988466</v>
+        <v>1.000778069884661</v>
       </c>
       <c r="N8">
-        <v>1.00077806988466</v>
+        <v>1.000778069884661</v>
       </c>
       <c r="O8">
         <v>1.000457434721144</v>
       </c>
       <c r="P8">
-        <v>1.000389166081305</v>
+        <v>1.000389166081306</v>
       </c>
       <c r="Q8">
-        <v>1.000389166081305</v>
+        <v>1.000389166081306</v>
       </c>
       <c r="R8">
-        <v>1.000194714179627</v>
+        <v>1.000194714179628</v>
       </c>
       <c r="S8">
-        <v>1.000194714179627</v>
+        <v>1.000194714179628</v>
       </c>
       <c r="T8">
         <v>1.000393588928512</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00078217216279</v>
+        <v>0.999776081333195</v>
       </c>
       <c r="D9">
-        <v>1.001351079669106</v>
+        <v>1.001184040744556</v>
       </c>
       <c r="E9">
-        <v>0.9998220043066715</v>
+        <v>0.9996084037569631</v>
       </c>
       <c r="F9">
         <v>1.00078217216279</v>
       </c>
       <c r="G9">
-        <v>1.001184040744556</v>
+        <v>1.00078217216279</v>
       </c>
       <c r="H9">
-        <v>0.9996084037569632</v>
+        <v>1.001351079669106</v>
       </c>
       <c r="I9">
-        <v>0.999776081333195</v>
+        <v>1.001351079669106</v>
       </c>
       <c r="J9">
-        <v>1.001351079669106</v>
+        <v>0.9998220043066715</v>
       </c>
       <c r="K9">
         <v>1.00078217216279</v>
@@ -1085,22 +1037,22 @@
         <v>1.000260495910914</v>
       </c>
       <c r="P9">
-        <v>1.000651752046189</v>
+        <v>1.00065175204619</v>
       </c>
       <c r="Q9">
         <v>1.000651752046189</v>
       </c>
       <c r="R9">
-        <v>1.000684357075339</v>
+        <v>1.00068435707534</v>
       </c>
       <c r="S9">
-        <v>1.000684357075339</v>
+        <v>1.00068435707534</v>
       </c>
       <c r="T9">
         <v>1.00042063032888</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00004921021417</v>
+        <v>0.9994253486345679</v>
       </c>
       <c r="D10">
-        <v>1.003626066628297</v>
+        <v>1.003902981967662</v>
       </c>
       <c r="E10">
-        <v>1.000137055221159</v>
+        <v>0.9993130034894974</v>
       </c>
       <c r="F10">
         <v>1.00004921021417</v>
       </c>
       <c r="G10">
-        <v>1.003902981967662</v>
+        <v>1.00004921021417</v>
       </c>
       <c r="H10">
-        <v>0.9993130034894974</v>
+        <v>1.003626066628297</v>
       </c>
       <c r="I10">
-        <v>0.9994253486345679</v>
+        <v>1.003626066628297</v>
       </c>
       <c r="J10">
-        <v>1.003626066628297</v>
+        <v>1.000137055221159</v>
       </c>
       <c r="K10">
         <v>1.00004921021417</v>
@@ -1162,7 +1114,7 @@
         <v>1.001075611025892</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.004327881850952</v>
+        <v>0.9991909099803656</v>
       </c>
       <c r="D11">
-        <v>1.004400821146334</v>
+        <v>1.003698294341228</v>
       </c>
       <c r="E11">
-        <v>0.998810231350628</v>
+        <v>0.9984249087532314</v>
       </c>
       <c r="F11">
         <v>1.004327881850952</v>
       </c>
       <c r="G11">
-        <v>1.003698294341228</v>
+        <v>1.004327881850952</v>
       </c>
       <c r="H11">
-        <v>0.9984249087532314</v>
+        <v>1.004400821146334</v>
       </c>
       <c r="I11">
-        <v>0.9991909099803656</v>
+        <v>1.004400821146334</v>
       </c>
       <c r="J11">
-        <v>1.004400821146334</v>
+        <v>0.998810231350628</v>
       </c>
       <c r="K11">
         <v>1.004327881850952</v>
@@ -1224,7 +1176,7 @@
         <v>1.00147550790379</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.226152087430778</v>
+        <v>1.010562656342278</v>
       </c>
       <c r="D12">
-        <v>0.8135648193026978</v>
+        <v>0.6076480114475263</v>
       </c>
       <c r="E12">
-        <v>0.9195313905494017</v>
+        <v>1.042499214400601</v>
       </c>
       <c r="F12">
         <v>1.226152087430778</v>
       </c>
       <c r="G12">
-        <v>0.6076480114475264</v>
+        <v>1.226152087430778</v>
       </c>
       <c r="H12">
-        <v>1.042499214400601</v>
+        <v>0.8135648193026975</v>
       </c>
       <c r="I12">
-        <v>1.010562656342278</v>
+        <v>0.8135648193026975</v>
       </c>
       <c r="J12">
-        <v>0.8135648193026978</v>
+        <v>0.9195313905494017</v>
       </c>
       <c r="K12">
         <v>1.226152087430778</v>
@@ -1262,16 +1214,16 @@
         <v>0.9195313905494017</v>
       </c>
       <c r="M12">
-        <v>0.8665481049260497</v>
+        <v>0.8665481049260496</v>
       </c>
       <c r="N12">
-        <v>0.8665481049260497</v>
+        <v>0.8665481049260496</v>
       </c>
       <c r="O12">
         <v>0.9251984747509002</v>
       </c>
       <c r="P12">
-        <v>0.9864160990942924</v>
+        <v>0.9864160990942925</v>
       </c>
       <c r="Q12">
         <v>0.9864160990942925</v>
@@ -1286,7 +1238,7 @@
         <v>0.9366596965788805</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9259020730545915</v>
+        <v>0.9769692938969803</v>
       </c>
       <c r="D13">
-        <v>1.196228588164551</v>
+        <v>1.146773738040237</v>
       </c>
       <c r="E13">
+        <v>1.001305353144287</v>
+      </c>
+      <c r="F13">
+        <v>0.9259020730545918</v>
+      </c>
+      <c r="G13">
+        <v>0.9259020730545918</v>
+      </c>
+      <c r="H13">
+        <v>1.19622858816455</v>
+      </c>
+      <c r="I13">
+        <v>1.19622858816455</v>
+      </c>
+      <c r="J13">
         <v>0.9980379874609863</v>
       </c>
-      <c r="F13">
-        <v>0.9259020730545915</v>
-      </c>
-      <c r="G13">
-        <v>1.146773738040237</v>
-      </c>
-      <c r="H13">
-        <v>1.001305353144287</v>
-      </c>
-      <c r="I13">
-        <v>0.9769692938969801</v>
-      </c>
-      <c r="J13">
-        <v>1.196228588164551</v>
-      </c>
       <c r="K13">
-        <v>0.9259020730545915</v>
+        <v>0.9259020730545918</v>
       </c>
       <c r="L13">
         <v>0.9980379874609863</v>
@@ -1348,7 +1300,7 @@
         <v>1.040869505626939</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,34 +1308,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7594890053520396</v>
+        <v>0.9279295441835341</v>
       </c>
       <c r="D14">
-        <v>1.440559545107162</v>
+        <v>1.166244549060898</v>
       </c>
       <c r="E14">
-        <v>0.9928443871418343</v>
+        <v>1.101895647005625</v>
       </c>
       <c r="F14">
         <v>0.7594890053520396</v>
       </c>
       <c r="G14">
-        <v>1.166244549060898</v>
+        <v>0.7594890053520396</v>
       </c>
       <c r="H14">
-        <v>1.101895647005625</v>
+        <v>1.440559545107162</v>
       </c>
       <c r="I14">
-        <v>0.9279295441835341</v>
+        <v>1.440559545107162</v>
       </c>
       <c r="J14">
-        <v>1.440559545107162</v>
+        <v>0.992844387141834</v>
       </c>
       <c r="K14">
         <v>0.7594890053520396</v>
       </c>
       <c r="L14">
-        <v>0.9928443871418343</v>
+        <v>0.992844387141834</v>
       </c>
       <c r="M14">
         <v>1.216701966124498</v>
@@ -1401,16 +1353,16 @@
         <v>1.064297645867012</v>
       </c>
       <c r="R14">
-        <v>0.988095485738269</v>
+        <v>0.9880954857382689</v>
       </c>
       <c r="S14">
-        <v>0.988095485738269</v>
+        <v>0.9880954857382689</v>
       </c>
       <c r="T14">
         <v>1.064827112975182</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.018211072495288</v>
+        <v>1.003399005809783</v>
       </c>
       <c r="D15">
-        <v>0.8597309207966093</v>
+        <v>0.8368033757414323</v>
       </c>
       <c r="E15">
-        <v>0.9981067985513478</v>
+        <v>1.040837308069024</v>
       </c>
       <c r="F15">
         <v>1.018211072495288</v>
       </c>
       <c r="G15">
-        <v>0.8368033757414323</v>
+        <v>1.018211072495288</v>
       </c>
       <c r="H15">
-        <v>1.040837308069024</v>
+        <v>0.8597309207966093</v>
       </c>
       <c r="I15">
-        <v>1.003399005809783</v>
+        <v>0.8597309207966093</v>
       </c>
       <c r="J15">
-        <v>0.8597309207966093</v>
+        <v>0.9981067985513478</v>
       </c>
       <c r="K15">
         <v>1.018211072495288</v>
@@ -1472,7 +1424,7 @@
         <v>0.9595147469105806</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9963262249797311</v>
+        <v>0.9861619971661297</v>
       </c>
       <c r="D16">
-        <v>1.000918552906954</v>
+        <v>0.7860611369087336</v>
       </c>
       <c r="E16">
-        <v>1.001473472435609</v>
+        <v>1.029578190031759</v>
       </c>
       <c r="F16">
-        <v>0.9963262249797311</v>
+        <v>1.171200274466133</v>
       </c>
       <c r="G16">
-        <v>1.00304405912742</v>
+        <v>1.171200274466133</v>
       </c>
       <c r="H16">
-        <v>1.000135616856035</v>
+        <v>0.9919431473805873</v>
       </c>
       <c r="I16">
-        <v>0.9999309407965054</v>
+        <v>0.9919431473805873</v>
       </c>
       <c r="J16">
-        <v>1.000918552906954</v>
+        <v>0.9252190678924933</v>
       </c>
       <c r="K16">
-        <v>0.9963262249797311</v>
+        <v>1.171200274466133</v>
       </c>
       <c r="L16">
-        <v>1.001473472435609</v>
+        <v>0.9252190678924933</v>
       </c>
       <c r="M16">
-        <v>1.001196012671282</v>
+        <v>0.9585811076365403</v>
       </c>
       <c r="N16">
-        <v>1.001196012671282</v>
+        <v>0.9585811076365403</v>
       </c>
       <c r="O16">
-        <v>1.000842547399533</v>
+        <v>0.9822468017682798</v>
       </c>
       <c r="P16">
-        <v>0.9995727501074317</v>
+        <v>1.029454163246404</v>
       </c>
       <c r="Q16">
-        <v>0.9995727501074315</v>
+        <v>1.029454163246404</v>
       </c>
       <c r="R16">
-        <v>0.9987611188255064</v>
+        <v>1.064890691051336</v>
       </c>
       <c r="S16">
-        <v>0.9987611188255064</v>
+        <v>1.064890691051336</v>
       </c>
       <c r="T16">
-        <v>1.000304811183709</v>
+        <v>0.9816939689743061</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.004022653101704</v>
+        <v>0.9859476713722346</v>
       </c>
       <c r="D17">
-        <v>0.9997593175139168</v>
+        <v>0.8795238349883636</v>
       </c>
       <c r="E17">
-        <v>0.9982742615212041</v>
+        <v>1.025365907998686</v>
       </c>
       <c r="F17">
-        <v>1.004022653101704</v>
+        <v>1.088111623563394</v>
       </c>
       <c r="G17">
-        <v>0.9968942296842329</v>
+        <v>1.088111623563394</v>
       </c>
       <c r="H17">
-        <v>0.9999635757726623</v>
+        <v>1.024812064209199</v>
       </c>
       <c r="I17">
-        <v>0.9998899103356096</v>
+        <v>1.024812064209199</v>
       </c>
       <c r="J17">
-        <v>0.9997593175139168</v>
+        <v>0.9553944319387363</v>
       </c>
       <c r="K17">
-        <v>1.004022653101704</v>
+        <v>1.088111623563394</v>
       </c>
       <c r="L17">
-        <v>0.9982742615212041</v>
+        <v>0.9553944319387363</v>
       </c>
       <c r="M17">
-        <v>0.9990167895175605</v>
+        <v>0.9901032480739678</v>
       </c>
       <c r="N17">
-        <v>0.9990167895175605</v>
+        <v>0.9901032480739678</v>
       </c>
       <c r="O17">
-        <v>0.9993323849359278</v>
+        <v>1.001857468048874</v>
       </c>
       <c r="P17">
-        <v>1.000685410712275</v>
+        <v>1.022772706570443</v>
       </c>
       <c r="Q17">
-        <v>1.000685410712275</v>
+        <v>1.022772706570443</v>
       </c>
       <c r="R17">
-        <v>1.001519721309632</v>
+        <v>1.039107435818681</v>
       </c>
       <c r="S17">
-        <v>1.001519721309632</v>
+        <v>1.039107435818681</v>
       </c>
       <c r="T17">
-        <v>0.9998006579882217</v>
+        <v>0.9931925890117689</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9948425901970857</v>
+        <v>0.9857573809560516</v>
       </c>
       <c r="D18">
-        <v>1.000731750527894</v>
+        <v>1.064379621914434</v>
       </c>
       <c r="E18">
-        <v>1.002561852172989</v>
+        <v>1.016501908860489</v>
       </c>
       <c r="F18">
-        <v>0.9948425901970857</v>
+        <v>0.9248606186270631</v>
       </c>
       <c r="G18">
-        <v>1.004031061709294</v>
+        <v>0.9248606186270631</v>
       </c>
       <c r="H18">
-        <v>1.000651426531763</v>
+        <v>1.088668912646401</v>
       </c>
       <c r="I18">
-        <v>0.9993843958623611</v>
+        <v>1.088668912646401</v>
       </c>
       <c r="J18">
-        <v>1.000731750527894</v>
+        <v>1.014949669110977</v>
       </c>
       <c r="K18">
-        <v>0.9948425901970857</v>
+        <v>0.9248606186270631</v>
       </c>
       <c r="L18">
-        <v>1.002561852172989</v>
+        <v>1.014949669110977</v>
       </c>
       <c r="M18">
-        <v>1.001646801350442</v>
+        <v>1.051809290878689</v>
       </c>
       <c r="N18">
-        <v>1.001646801350442</v>
+        <v>1.051809290878689</v>
       </c>
       <c r="O18">
-        <v>1.001315009744215</v>
+        <v>1.040040163539289</v>
       </c>
       <c r="P18">
-        <v>0.9993787309659896</v>
+        <v>1.009493066794813</v>
       </c>
       <c r="Q18">
-        <v>0.9993787309659896</v>
+        <v>1.009493066794813</v>
       </c>
       <c r="R18">
-        <v>0.9982446957737636</v>
+        <v>0.9883349547528759</v>
       </c>
       <c r="S18">
-        <v>0.9982446957737636</v>
+        <v>0.9883349547528759</v>
       </c>
       <c r="T18">
-        <v>1.000367179500231</v>
+        <v>1.015853018685902</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9728048767013401</v>
+        <v>0.982566848064498</v>
       </c>
       <c r="D19">
+        <v>1.104062741632205</v>
+      </c>
+      <c r="E19">
+        <v>1.016959225228426</v>
+      </c>
+      <c r="F19">
+        <v>0.8916203183718099</v>
+      </c>
+      <c r="G19">
+        <v>0.8916203183718099</v>
+      </c>
+      <c r="H19">
+        <v>1.116877088677985</v>
+      </c>
+      <c r="I19">
+        <v>1.116877088677985</v>
+      </c>
+      <c r="J19">
+        <v>1.025466372349891</v>
+      </c>
+      <c r="K19">
+        <v>0.8916203183718099</v>
+      </c>
+      <c r="L19">
+        <v>1.025466372349891</v>
+      </c>
+      <c r="M19">
+        <v>1.071171730513938</v>
+      </c>
+      <c r="N19">
+        <v>1.071171730513938</v>
+      </c>
+      <c r="O19">
+        <v>1.053100895418767</v>
+      </c>
+      <c r="P19">
+        <v>1.011321259799895</v>
+      </c>
+      <c r="Q19">
+        <v>1.011321259799895</v>
+      </c>
+      <c r="R19">
+        <v>0.981396024442874</v>
+      </c>
+      <c r="S19">
+        <v>0.981396024442874</v>
+      </c>
+      <c r="T19">
+        <v>1.022925432387469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999309407965052</v>
+      </c>
+      <c r="D20">
+        <v>1.00304405912742</v>
+      </c>
+      <c r="E20">
+        <v>1.000135616856035</v>
+      </c>
+      <c r="F20">
+        <v>0.996326224979731</v>
+      </c>
+      <c r="G20">
+        <v>0.996326224979731</v>
+      </c>
+      <c r="H20">
+        <v>1.000918552906954</v>
+      </c>
+      <c r="I20">
+        <v>1.000918552906954</v>
+      </c>
+      <c r="J20">
+        <v>1.001473472435609</v>
+      </c>
+      <c r="K20">
+        <v>0.996326224979731</v>
+      </c>
+      <c r="L20">
+        <v>1.001473472435609</v>
+      </c>
+      <c r="M20">
+        <v>1.001196012671282</v>
+      </c>
+      <c r="N20">
+        <v>1.001196012671282</v>
+      </c>
+      <c r="O20">
+        <v>1.000842547399533</v>
+      </c>
+      <c r="P20">
+        <v>0.9995727501074314</v>
+      </c>
+      <c r="Q20">
+        <v>0.9995727501074313</v>
+      </c>
+      <c r="R20">
+        <v>0.9987611188255062</v>
+      </c>
+      <c r="S20">
+        <v>0.9987611188255062</v>
+      </c>
+      <c r="T20">
+        <v>1.000304811183709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9998899103356096</v>
+      </c>
+      <c r="D21">
+        <v>0.9968942296842329</v>
+      </c>
+      <c r="E21">
+        <v>0.9999635757726629</v>
+      </c>
+      <c r="F21">
+        <v>1.004022653101704</v>
+      </c>
+      <c r="G21">
+        <v>1.004022653101704</v>
+      </c>
+      <c r="H21">
+        <v>0.9997593175139168</v>
+      </c>
+      <c r="I21">
+        <v>0.9997593175139168</v>
+      </c>
+      <c r="J21">
+        <v>0.9982742615212041</v>
+      </c>
+      <c r="K21">
+        <v>1.004022653101704</v>
+      </c>
+      <c r="L21">
+        <v>0.9982742615212041</v>
+      </c>
+      <c r="M21">
+        <v>0.9990167895175605</v>
+      </c>
+      <c r="N21">
+        <v>0.9990167895175605</v>
+      </c>
+      <c r="O21">
+        <v>0.9993323849359279</v>
+      </c>
+      <c r="P21">
+        <v>1.000685410712275</v>
+      </c>
+      <c r="Q21">
+        <v>1.000685410712275</v>
+      </c>
+      <c r="R21">
+        <v>1.001519721309632</v>
+      </c>
+      <c r="S21">
+        <v>1.001519721309632</v>
+      </c>
+      <c r="T21">
+        <v>0.9998006579882217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9993843958623611</v>
+      </c>
+      <c r="D22">
+        <v>1.004031061709294</v>
+      </c>
+      <c r="E22">
+        <v>1.000651426531763</v>
+      </c>
+      <c r="F22">
+        <v>0.9948425901970857</v>
+      </c>
+      <c r="G22">
+        <v>0.9948425901970857</v>
+      </c>
+      <c r="H22">
+        <v>1.000731750527894</v>
+      </c>
+      <c r="I22">
+        <v>1.000731750527894</v>
+      </c>
+      <c r="J22">
+        <v>1.002561852172989</v>
+      </c>
+      <c r="K22">
+        <v>0.9948425901970857</v>
+      </c>
+      <c r="L22">
+        <v>1.002561852172989</v>
+      </c>
+      <c r="M22">
+        <v>1.001646801350442</v>
+      </c>
+      <c r="N22">
+        <v>1.001646801350442</v>
+      </c>
+      <c r="O22">
+        <v>1.001315009744215</v>
+      </c>
+      <c r="P22">
+        <v>0.9993787309659896</v>
+      </c>
+      <c r="Q22">
+        <v>0.9993787309659895</v>
+      </c>
+      <c r="R22">
+        <v>0.9982446957737635</v>
+      </c>
+      <c r="S22">
+        <v>0.9982446957737635</v>
+      </c>
+      <c r="T22">
+        <v>1.000367179500231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9999566947849777</v>
+      </c>
+      <c r="D23">
+        <v>1.014846105841701</v>
+      </c>
+      <c r="E23">
+        <v>1.002547176188888</v>
+      </c>
+      <c r="F23">
+        <v>0.97280487670134</v>
+      </c>
+      <c r="G23">
+        <v>0.97280487670134</v>
+      </c>
+      <c r="H23">
         <v>1.003336163301229</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>1.003336163301229</v>
+      </c>
+      <c r="J23">
         <v>1.011040282410761</v>
       </c>
-      <c r="F19">
-        <v>0.9728048767013401</v>
-      </c>
-      <c r="G19">
-        <v>1.014846105841701</v>
-      </c>
-      <c r="H19">
-        <v>1.002547176188888</v>
-      </c>
-      <c r="I19">
-        <v>0.9999566947849777</v>
-      </c>
-      <c r="J19">
-        <v>1.003336163301229</v>
-      </c>
-      <c r="K19">
-        <v>0.9728048767013401</v>
-      </c>
-      <c r="L19">
+      <c r="K23">
+        <v>0.97280487670134</v>
+      </c>
+      <c r="L23">
         <v>1.011040282410761</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.007188222855995</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.007188222855995</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.005641207300292</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9957271074711102</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9957271074711102</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9899965497786676</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9899965497786676</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000755216538149</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW15.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9992840340062283</v>
+        <v>0.9847955213112388</v>
       </c>
       <c r="D3">
-        <v>0.9878296850411552</v>
+        <v>1.07733514477666</v>
       </c>
       <c r="E3">
-        <v>1.001433247393378</v>
+        <v>1.015052264697405</v>
       </c>
       <c r="F3">
-        <v>1.010313643421926</v>
+        <v>0.9172441617363132</v>
       </c>
       <c r="G3">
-        <v>1.010313643421926</v>
+        <v>0.9172441617363132</v>
       </c>
       <c r="H3">
-        <v>0.9988668487488201</v>
+        <v>1.098549936276654</v>
       </c>
       <c r="I3">
-        <v>0.9988668487488201</v>
+        <v>1.098549936276654</v>
       </c>
       <c r="J3">
-        <v>0.9957608877534186</v>
+        <v>1.018573960266572</v>
       </c>
       <c r="K3">
-        <v>1.010313643421926</v>
+        <v>0.9172441617363132</v>
       </c>
       <c r="L3">
-        <v>0.9957608877534186</v>
+        <v>1.018573960266572</v>
       </c>
       <c r="M3">
-        <v>0.9973138682511193</v>
+        <v>1.058561948271613</v>
       </c>
       <c r="N3">
-        <v>0.9973138682511193</v>
+        <v>1.058561948271613</v>
       </c>
       <c r="O3">
-        <v>0.9986869946318722</v>
+        <v>1.044058720413544</v>
       </c>
       <c r="P3">
-        <v>1.001647126641388</v>
+        <v>1.011456019426513</v>
       </c>
       <c r="Q3">
-        <v>1.001647126641388</v>
+        <v>1.011456019426513</v>
       </c>
       <c r="R3">
-        <v>1.003813755836523</v>
+        <v>0.9879030550039634</v>
       </c>
       <c r="S3">
-        <v>1.003813755836523</v>
+        <v>0.9879030550039634</v>
       </c>
       <c r="T3">
-        <v>0.9989147243941544</v>
+        <v>1.018591831510807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9986395087887119</v>
+        <v>0.9852507823928437</v>
       </c>
       <c r="D4">
-        <v>0.9761204295953141</v>
+        <v>1.072009005950431</v>
       </c>
       <c r="E4">
-        <v>1.002724914057606</v>
+        <v>1.016148866137719</v>
       </c>
       <c r="F4">
-        <v>1.020327310461459</v>
+        <v>0.9186769880544203</v>
       </c>
       <c r="G4">
-        <v>1.020327310461459</v>
+        <v>0.9186769880544203</v>
       </c>
       <c r="H4">
-        <v>0.997589033456908</v>
+        <v>1.094200896408125</v>
       </c>
       <c r="I4">
-        <v>0.997589033456908</v>
+        <v>1.094200896408125</v>
       </c>
       <c r="J4">
-        <v>0.9916335107254579</v>
+        <v>1.01743342166791</v>
       </c>
       <c r="K4">
-        <v>1.020327310461459</v>
+        <v>0.9186769880544203</v>
       </c>
       <c r="L4">
-        <v>0.9916335107254579</v>
+        <v>1.01743342166791</v>
       </c>
       <c r="M4">
-        <v>0.9946112720911829</v>
+        <v>1.055817159038017</v>
       </c>
       <c r="N4">
-        <v>0.9946112720911829</v>
+        <v>1.055817159038017</v>
       </c>
       <c r="O4">
-        <v>0.9973158194133239</v>
+        <v>1.042594394737918</v>
       </c>
       <c r="P4">
-        <v>1.003183284881275</v>
+        <v>1.010103768710152</v>
       </c>
       <c r="Q4">
-        <v>1.003183284881275</v>
+        <v>1.010103768710152</v>
       </c>
       <c r="R4">
-        <v>1.007469291276321</v>
+        <v>0.9872470735462189</v>
       </c>
       <c r="S4">
-        <v>1.007469291276321</v>
+        <v>0.9872470735462189</v>
       </c>
       <c r="T4">
-        <v>0.9978391178475761</v>
+        <v>1.017286660101908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.997194255252568</v>
+        <v>0.9838776765229096</v>
       </c>
       <c r="D5">
-        <v>0.9570653835116948</v>
+        <v>1.087578486549865</v>
       </c>
       <c r="E5">
-        <v>1.005238073061536</v>
+        <v>1.012878763773584</v>
       </c>
       <c r="F5">
-        <v>1.036544086658786</v>
+        <v>0.9149110417520216</v>
       </c>
       <c r="G5">
-        <v>1.036544086658786</v>
+        <v>0.9149110417520216</v>
       </c>
       <c r="H5">
-        <v>0.9971226400129226</v>
+        <v>1.107034359654985</v>
       </c>
       <c r="I5">
-        <v>0.9971226400129226</v>
+        <v>1.107034359654985</v>
       </c>
       <c r="J5">
-        <v>0.9850024173647374</v>
+        <v>1.020610160080861</v>
       </c>
       <c r="K5">
-        <v>1.036544086658786</v>
+        <v>0.9149110417520216</v>
       </c>
       <c r="L5">
-        <v>0.9850024173647374</v>
+        <v>1.020610160080861</v>
       </c>
       <c r="M5">
-        <v>0.9910625286888299</v>
+        <v>1.063822259867923</v>
       </c>
       <c r="N5">
-        <v>0.9910625286888299</v>
+        <v>1.063822259867923</v>
       </c>
       <c r="O5">
-        <v>0.9957877101463986</v>
+        <v>1.046841094503143</v>
       </c>
       <c r="P5">
-        <v>1.006223048012149</v>
+        <v>1.014185187162623</v>
       </c>
       <c r="Q5">
-        <v>1.006223048012149</v>
+        <v>1.014185187162623</v>
       </c>
       <c r="R5">
-        <v>1.013803307673808</v>
+        <v>0.9893666508099723</v>
       </c>
       <c r="S5">
-        <v>1.013803307673808</v>
+        <v>0.9893666508099723</v>
       </c>
       <c r="T5">
-        <v>0.9963611426437073</v>
+        <v>1.021148414722371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9950493389529582</v>
+        <v>0.9829573587500003</v>
       </c>
       <c r="D6">
-        <v>0.9395788043893717</v>
+        <v>1.097295402840909</v>
       </c>
       <c r="E6">
-        <v>1.007758021776985</v>
+        <v>1.010741235852273</v>
       </c>
       <c r="F6">
-        <v>1.054306147978222</v>
+        <v>0.9131939835227272</v>
       </c>
       <c r="G6">
-        <v>1.054306147978222</v>
+        <v>0.9131939835227272</v>
       </c>
       <c r="H6">
-        <v>0.9969158964927514</v>
+        <v>1.115223960352272</v>
       </c>
       <c r="I6">
-        <v>0.9969158964927514</v>
+        <v>1.115223960352272</v>
       </c>
       <c r="J6">
-        <v>0.9799850216717438</v>
+        <v>1.022356984261365</v>
       </c>
       <c r="K6">
-        <v>1.054306147978222</v>
+        <v>0.9131939835227272</v>
       </c>
       <c r="L6">
-        <v>0.9799850216717438</v>
+        <v>1.022356984261365</v>
       </c>
       <c r="M6">
-        <v>0.9884504590822476</v>
+        <v>1.068790472306819</v>
       </c>
       <c r="N6">
-        <v>0.9884504590822476</v>
+        <v>1.068790472306819</v>
       </c>
       <c r="O6">
-        <v>0.9948863133138269</v>
+        <v>1.04944072682197</v>
       </c>
       <c r="P6">
-        <v>1.010402355380906</v>
+        <v>1.016924976045455</v>
       </c>
       <c r="Q6">
-        <v>1.010402355380906</v>
+        <v>1.016924976045455</v>
       </c>
       <c r="R6">
-        <v>1.021378303530235</v>
+        <v>0.9909922279147729</v>
       </c>
       <c r="S6">
-        <v>1.021378303530235</v>
+        <v>0.9909922279147729</v>
       </c>
       <c r="T6">
-        <v>0.9955988718770055</v>
+        <v>1.023628154263258</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998830707076818</v>
+        <v>1.160731443371459</v>
       </c>
       <c r="D7">
-        <v>1.000694579872367</v>
+        <v>1.17411121224407</v>
       </c>
       <c r="E7">
-        <v>1.000019750360145</v>
+        <v>0.6411301414982419</v>
       </c>
       <c r="F7">
-        <v>0.9995486872504216</v>
+        <v>1.416620296523804</v>
       </c>
       <c r="G7">
-        <v>0.9995486872504216</v>
+        <v>1.416620296523804</v>
       </c>
       <c r="H7">
-        <v>1.000784820436869</v>
+        <v>0.3607870691576942</v>
       </c>
       <c r="I7">
-        <v>1.000784820436869</v>
+        <v>0.3607870691576942</v>
       </c>
       <c r="J7">
-        <v>1.000124776338551</v>
+        <v>1.066483007670296</v>
       </c>
       <c r="K7">
-        <v>0.9995486872504216</v>
+        <v>1.416620296523804</v>
       </c>
       <c r="L7">
-        <v>1.000124776338551</v>
+        <v>1.066483007670296</v>
       </c>
       <c r="M7">
-        <v>1.00045479838771</v>
+        <v>0.713635038413995</v>
       </c>
       <c r="N7">
-        <v>1.00045479838771</v>
+        <v>0.713635038413995</v>
       </c>
       <c r="O7">
-        <v>1.000309782378522</v>
+        <v>0.6894667394420773</v>
       </c>
       <c r="P7">
-        <v>1.000152761341947</v>
+        <v>0.9479634577839313</v>
       </c>
       <c r="Q7">
-        <v>1.000152761341947</v>
+        <v>0.9479634577839313</v>
       </c>
       <c r="R7">
-        <v>1.000001742819066</v>
+        <v>1.0651276674689</v>
       </c>
       <c r="S7">
-        <v>1.000001742819066</v>
+        <v>1.0651276674689</v>
       </c>
       <c r="T7">
-        <v>1.000175947494339</v>
+        <v>0.9699771950775942</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999791856583333</v>
+        <v>1.15967593165236</v>
       </c>
       <c r="D8">
-        <v>1.001586014349713</v>
+        <v>1.174750890627671</v>
       </c>
       <c r="E8">
-        <v>0.9998161643941119</v>
+        <v>0.6422291735971748</v>
       </c>
       <c r="F8">
-        <v>0.9996113584745954</v>
+        <v>1.41602622811095</v>
       </c>
       <c r="G8">
-        <v>0.9996113584745954</v>
+        <v>1.41602622811095</v>
       </c>
       <c r="H8">
-        <v>1.001386073157659</v>
+        <v>0.3655711095286229</v>
       </c>
       <c r="I8">
-        <v>1.001386073157659</v>
+        <v>0.3655711095286229</v>
       </c>
       <c r="J8">
-        <v>1.000170066611662</v>
+        <v>1.065859246414155</v>
       </c>
       <c r="K8">
-        <v>0.9996113584745954</v>
+        <v>1.41602622811095</v>
       </c>
       <c r="L8">
-        <v>1.000170066611662</v>
+        <v>1.065859246414155</v>
       </c>
       <c r="M8">
-        <v>1.000778069884661</v>
+        <v>0.7157151779713889</v>
       </c>
       <c r="N8">
-        <v>1.000778069884661</v>
+        <v>0.7157151779713889</v>
       </c>
       <c r="O8">
-        <v>1.000457434721144</v>
+        <v>0.6912198431799842</v>
       </c>
       <c r="P8">
-        <v>1.000389166081306</v>
+        <v>0.9491521946845761</v>
       </c>
       <c r="Q8">
-        <v>1.000389166081306</v>
+        <v>0.9491521946845761</v>
       </c>
       <c r="R8">
-        <v>1.000194714179628</v>
+        <v>1.06587070304117</v>
       </c>
       <c r="S8">
-        <v>1.000194714179628</v>
+        <v>1.06587070304117</v>
       </c>
       <c r="T8">
-        <v>1.000393588928512</v>
+        <v>0.9706854299884892</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.999776081333195</v>
+        <v>1.158692878433792</v>
       </c>
       <c r="D9">
-        <v>1.001184040744556</v>
+        <v>1.177593578637714</v>
       </c>
       <c r="E9">
-        <v>0.9996084037569631</v>
+        <v>0.6435079210957493</v>
       </c>
       <c r="F9">
-        <v>1.00078217216279</v>
+        <v>1.411985033706799</v>
       </c>
       <c r="G9">
-        <v>1.00078217216279</v>
+        <v>1.411985033706799</v>
       </c>
       <c r="H9">
-        <v>1.001351079669106</v>
+        <v>0.3710425858357352</v>
       </c>
       <c r="I9">
-        <v>1.001351079669106</v>
+        <v>0.3710425858357352</v>
       </c>
       <c r="J9">
-        <v>0.9998220043066715</v>
+        <v>1.066490158418565</v>
       </c>
       <c r="K9">
-        <v>1.00078217216279</v>
+        <v>1.411985033706799</v>
       </c>
       <c r="L9">
-        <v>0.9998220043066715</v>
+        <v>1.066490158418565</v>
       </c>
       <c r="M9">
-        <v>1.000586541987889</v>
+        <v>0.71876637212715</v>
       </c>
       <c r="N9">
-        <v>1.000586541987889</v>
+        <v>0.71876637212715</v>
       </c>
       <c r="O9">
-        <v>1.000260495910914</v>
+        <v>0.6936802217833499</v>
       </c>
       <c r="P9">
-        <v>1.00065175204619</v>
+        <v>0.9498392593203663</v>
       </c>
       <c r="Q9">
-        <v>1.000651752046189</v>
+        <v>0.9498392593203663</v>
       </c>
       <c r="R9">
-        <v>1.00068435707534</v>
+        <v>1.065375702916974</v>
       </c>
       <c r="S9">
-        <v>1.00068435707534</v>
+        <v>1.065375702916974</v>
       </c>
       <c r="T9">
-        <v>1.00042063032888</v>
+        <v>0.9715520260213925</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9994253486345679</v>
+        <v>1.156840950637381</v>
       </c>
       <c r="D10">
-        <v>1.003902981967662</v>
+        <v>1.174485692386249</v>
       </c>
       <c r="E10">
-        <v>0.9993130034894974</v>
+        <v>0.6432757023790019</v>
       </c>
       <c r="F10">
-        <v>1.00004921021417</v>
+        <v>1.422768571836679</v>
       </c>
       <c r="G10">
-        <v>1.00004921021417</v>
+        <v>1.422768571836679</v>
       </c>
       <c r="H10">
-        <v>1.003626066628297</v>
+        <v>0.3773520501001378</v>
       </c>
       <c r="I10">
-        <v>1.003626066628297</v>
+        <v>0.3773520501001378</v>
       </c>
       <c r="J10">
-        <v>1.000137055221159</v>
+        <v>1.062110422768934</v>
       </c>
       <c r="K10">
-        <v>1.00004921021417</v>
+        <v>1.422768571836679</v>
       </c>
       <c r="L10">
-        <v>1.000137055221159</v>
+        <v>1.062110422768934</v>
       </c>
       <c r="M10">
-        <v>1.001881560924728</v>
+        <v>0.7197312364345356</v>
       </c>
       <c r="N10">
-        <v>1.001881560924728</v>
+        <v>0.7197312364345356</v>
       </c>
       <c r="O10">
-        <v>1.001025375112985</v>
+        <v>0.6942460584160243</v>
       </c>
       <c r="P10">
-        <v>1.001270777354542</v>
+        <v>0.9540770149019168</v>
       </c>
       <c r="Q10">
-        <v>1.001270777354542</v>
+        <v>0.9540770149019168</v>
       </c>
       <c r="R10">
-        <v>1.000965385569449</v>
+        <v>1.071249904135607</v>
       </c>
       <c r="S10">
-        <v>1.000965385569449</v>
+        <v>1.071249904135607</v>
       </c>
       <c r="T10">
-        <v>1.001075611025892</v>
+        <v>0.9728055650180636</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9991909099803656</v>
+        <v>1.000076061940366</v>
       </c>
       <c r="D11">
-        <v>1.003698294341228</v>
+        <v>0.9857662250145853</v>
       </c>
       <c r="E11">
-        <v>0.9984249087532314</v>
+        <v>1.000183334274813</v>
       </c>
       <c r="F11">
-        <v>1.004327881850952</v>
+        <v>1.013895530320609</v>
       </c>
       <c r="G11">
-        <v>1.004327881850952</v>
+        <v>1.013895530320609</v>
       </c>
       <c r="H11">
-        <v>1.004400821146334</v>
+        <v>0.9956122433398245</v>
       </c>
       <c r="I11">
-        <v>1.004400821146334</v>
+        <v>0.9956122433398245</v>
       </c>
       <c r="J11">
-        <v>0.998810231350628</v>
+        <v>0.9950192942077858</v>
       </c>
       <c r="K11">
-        <v>1.004327881850952</v>
+        <v>1.013895530320609</v>
       </c>
       <c r="L11">
-        <v>0.998810231350628</v>
+        <v>0.9950192942077858</v>
       </c>
       <c r="M11">
-        <v>1.001605526248481</v>
+        <v>0.9953157687738051</v>
       </c>
       <c r="N11">
-        <v>1.001605526248481</v>
+        <v>0.9953157687738051</v>
       </c>
       <c r="O11">
-        <v>1.000545320416731</v>
+        <v>0.9969382906074742</v>
       </c>
       <c r="P11">
-        <v>1.002512978115971</v>
+        <v>1.00150902262274</v>
       </c>
       <c r="Q11">
-        <v>1.002512978115971</v>
+        <v>1.00150902262274</v>
       </c>
       <c r="R11">
-        <v>1.002966704049716</v>
+        <v>1.004605649547207</v>
       </c>
       <c r="S11">
-        <v>1.002966704049716</v>
+        <v>1.004605649547207</v>
       </c>
       <c r="T11">
-        <v>1.00147550790379</v>
+        <v>0.9984254481829972</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.010562656342278</v>
+        <v>1.000503845606171</v>
       </c>
       <c r="D12">
-        <v>0.6076480114475263</v>
+        <v>0.9951933621406462</v>
       </c>
       <c r="E12">
-        <v>1.042499214400601</v>
+        <v>0.9988334504277612</v>
       </c>
       <c r="F12">
-        <v>1.226152087430778</v>
+        <v>1.006882685932197</v>
       </c>
       <c r="G12">
-        <v>1.226152087430778</v>
+        <v>1.006882685932197</v>
       </c>
       <c r="H12">
-        <v>0.8135648193026975</v>
+        <v>0.996291650869196</v>
       </c>
       <c r="I12">
-        <v>0.8135648193026975</v>
+        <v>0.996291650869196</v>
       </c>
       <c r="J12">
-        <v>0.9195313905494017</v>
+        <v>0.9983645256332607</v>
       </c>
       <c r="K12">
-        <v>1.226152087430778</v>
+        <v>1.006882685932197</v>
       </c>
       <c r="L12">
-        <v>0.9195313905494017</v>
+        <v>0.9983645256332607</v>
       </c>
       <c r="M12">
-        <v>0.8665481049260496</v>
+        <v>0.9973280882512283</v>
       </c>
       <c r="N12">
-        <v>0.8665481049260496</v>
+        <v>0.9973280882512283</v>
       </c>
       <c r="O12">
-        <v>0.9251984747509002</v>
+        <v>0.997829875643406</v>
       </c>
       <c r="P12">
-        <v>0.9864160990942925</v>
+        <v>1.000512954144885</v>
       </c>
       <c r="Q12">
-        <v>0.9864160990942925</v>
+        <v>1.000512954144885</v>
       </c>
       <c r="R12">
-        <v>1.046350096178414</v>
+        <v>1.002105387091712</v>
       </c>
       <c r="S12">
-        <v>1.046350096178414</v>
+        <v>1.002105387091712</v>
       </c>
       <c r="T12">
-        <v>0.9366596965788805</v>
+        <v>0.9993449201015386</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9769692938969803</v>
+        <v>1.00230093655211</v>
       </c>
       <c r="D13">
-        <v>1.146773738040237</v>
+        <v>0.9824730369026657</v>
       </c>
       <c r="E13">
-        <v>1.001305353144287</v>
+        <v>0.9952885494801555</v>
       </c>
       <c r="F13">
-        <v>0.9259020730545918</v>
+        <v>1.024749883428708</v>
       </c>
       <c r="G13">
-        <v>0.9259020730545918</v>
+        <v>1.024749883428708</v>
       </c>
       <c r="H13">
-        <v>1.19622858816455</v>
+        <v>0.9860053958646947</v>
       </c>
       <c r="I13">
-        <v>1.19622858816455</v>
+        <v>0.9860053958646947</v>
       </c>
       <c r="J13">
-        <v>0.9980379874609863</v>
+        <v>0.9941609118687708</v>
       </c>
       <c r="K13">
-        <v>0.9259020730545918</v>
+        <v>1.024749883428708</v>
       </c>
       <c r="L13">
-        <v>0.9980379874609863</v>
+        <v>0.9941609118687708</v>
       </c>
       <c r="M13">
-        <v>1.097133287812768</v>
+        <v>0.9900831538667327</v>
       </c>
       <c r="N13">
-        <v>1.097133287812768</v>
+        <v>0.9900831538667327</v>
       </c>
       <c r="O13">
-        <v>1.065190642923275</v>
+        <v>0.9918182857378737</v>
       </c>
       <c r="P13">
-        <v>1.04005621622671</v>
+        <v>1.001638730387391</v>
       </c>
       <c r="Q13">
-        <v>1.04005621622671</v>
+        <v>1.001638730387391</v>
       </c>
       <c r="R13">
-        <v>1.01151768043368</v>
+        <v>1.00741651864772</v>
       </c>
       <c r="S13">
-        <v>1.01151768043368</v>
+        <v>1.00741651864772</v>
       </c>
       <c r="T13">
-        <v>1.040869505626939</v>
+        <v>0.9974964523495174</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9279295441835341</v>
+        <v>0.9980739706373482</v>
       </c>
       <c r="D14">
-        <v>1.166244549060898</v>
+        <v>0.9678980828205714</v>
       </c>
       <c r="E14">
-        <v>1.101895647005625</v>
+        <v>1.00396945797427</v>
       </c>
       <c r="F14">
-        <v>0.7594890053520396</v>
+        <v>1.02666083165882</v>
       </c>
       <c r="G14">
-        <v>0.7594890053520396</v>
+        <v>1.02666083165882</v>
       </c>
       <c r="H14">
-        <v>1.440559545107162</v>
+        <v>0.9979209944099101</v>
       </c>
       <c r="I14">
-        <v>1.440559545107162</v>
+        <v>0.9979209944099101</v>
       </c>
       <c r="J14">
-        <v>0.992844387141834</v>
+        <v>0.9887855139221774</v>
       </c>
       <c r="K14">
-        <v>0.7594890053520396</v>
+        <v>1.02666083165882</v>
       </c>
       <c r="L14">
-        <v>0.992844387141834</v>
+        <v>0.9887855139221774</v>
       </c>
       <c r="M14">
-        <v>1.216701966124498</v>
+        <v>0.9933532541660437</v>
       </c>
       <c r="N14">
-        <v>1.216701966124498</v>
+        <v>0.9933532541660437</v>
       </c>
       <c r="O14">
-        <v>1.178433193084874</v>
+        <v>0.996891988768786</v>
       </c>
       <c r="P14">
-        <v>1.064297645867012</v>
+        <v>1.004455779996969</v>
       </c>
       <c r="Q14">
-        <v>1.064297645867012</v>
+        <v>1.004455779996969</v>
       </c>
       <c r="R14">
-        <v>0.9880954857382689</v>
+        <v>1.010007042912432</v>
       </c>
       <c r="S14">
-        <v>0.9880954857382689</v>
+        <v>1.010007042912432</v>
       </c>
       <c r="T14">
-        <v>1.064827112975182</v>
+        <v>0.9972181419038496</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.003399005809783</v>
+        <v>0.9992840340062283</v>
       </c>
       <c r="D15">
-        <v>0.8368033757414323</v>
+        <v>0.9878296850411552</v>
       </c>
       <c r="E15">
-        <v>1.040837308069024</v>
+        <v>1.001433247393378</v>
       </c>
       <c r="F15">
-        <v>1.018211072495288</v>
+        <v>1.010313643421926</v>
       </c>
       <c r="G15">
-        <v>1.018211072495288</v>
+        <v>1.010313643421926</v>
       </c>
       <c r="H15">
-        <v>0.8597309207966093</v>
+        <v>0.9988668487488201</v>
       </c>
       <c r="I15">
-        <v>0.8597309207966093</v>
+        <v>0.9988668487488201</v>
       </c>
       <c r="J15">
-        <v>0.9981067985513478</v>
+        <v>0.9957608877534186</v>
       </c>
       <c r="K15">
-        <v>1.018211072495288</v>
+        <v>1.010313643421926</v>
       </c>
       <c r="L15">
-        <v>0.9981067985513478</v>
+        <v>0.9957608877534186</v>
       </c>
       <c r="M15">
-        <v>0.9289188596739786</v>
+        <v>0.9973138682511193</v>
       </c>
       <c r="N15">
-        <v>0.9289188596739786</v>
+        <v>0.9973138682511193</v>
       </c>
       <c r="O15">
-        <v>0.9662250091389938</v>
+        <v>0.9986869946318722</v>
       </c>
       <c r="P15">
-        <v>0.958682930614415</v>
+        <v>1.001647126641388</v>
       </c>
       <c r="Q15">
-        <v>0.9586829306144149</v>
+        <v>1.001647126641388</v>
       </c>
       <c r="R15">
-        <v>0.9735649660846331</v>
+        <v>1.003813755836523</v>
       </c>
       <c r="S15">
-        <v>0.9735649660846331</v>
+        <v>1.003813755836523</v>
       </c>
       <c r="T15">
-        <v>0.9595147469105806</v>
+        <v>0.9989147243941544</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9861619971661297</v>
+        <v>0.9986395087887119</v>
       </c>
       <c r="D16">
-        <v>0.7860611369087336</v>
+        <v>0.9761204295953141</v>
       </c>
       <c r="E16">
-        <v>1.029578190031759</v>
+        <v>1.002724914057606</v>
       </c>
       <c r="F16">
-        <v>1.171200274466133</v>
+        <v>1.020327310461459</v>
       </c>
       <c r="G16">
-        <v>1.171200274466133</v>
+        <v>1.020327310461459</v>
       </c>
       <c r="H16">
-        <v>0.9919431473805873</v>
+        <v>0.997589033456908</v>
       </c>
       <c r="I16">
-        <v>0.9919431473805873</v>
+        <v>0.997589033456908</v>
       </c>
       <c r="J16">
-        <v>0.9252190678924933</v>
+        <v>0.9916335107254579</v>
       </c>
       <c r="K16">
-        <v>1.171200274466133</v>
+        <v>1.020327310461459</v>
       </c>
       <c r="L16">
-        <v>0.9252190678924933</v>
+        <v>0.9916335107254579</v>
       </c>
       <c r="M16">
-        <v>0.9585811076365403</v>
+        <v>0.9946112720911829</v>
       </c>
       <c r="N16">
-        <v>0.9585811076365403</v>
+        <v>0.9946112720911829</v>
       </c>
       <c r="O16">
-        <v>0.9822468017682798</v>
+        <v>0.9973158194133239</v>
       </c>
       <c r="P16">
-        <v>1.029454163246404</v>
+        <v>1.003183284881275</v>
       </c>
       <c r="Q16">
-        <v>1.029454163246404</v>
+        <v>1.003183284881275</v>
       </c>
       <c r="R16">
-        <v>1.064890691051336</v>
+        <v>1.007469291276321</v>
       </c>
       <c r="S16">
-        <v>1.064890691051336</v>
+        <v>1.007469291276321</v>
       </c>
       <c r="T16">
-        <v>0.9816939689743061</v>
+        <v>0.9978391178475761</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9859476713722346</v>
+        <v>0.997194255252568</v>
       </c>
       <c r="D17">
-        <v>0.8795238349883636</v>
+        <v>0.9570653835116948</v>
       </c>
       <c r="E17">
-        <v>1.025365907998686</v>
+        <v>1.005238073061536</v>
       </c>
       <c r="F17">
-        <v>1.088111623563394</v>
+        <v>1.036544086658786</v>
       </c>
       <c r="G17">
-        <v>1.088111623563394</v>
+        <v>1.036544086658786</v>
       </c>
       <c r="H17">
-        <v>1.024812064209199</v>
+        <v>0.9971226400129226</v>
       </c>
       <c r="I17">
-        <v>1.024812064209199</v>
+        <v>0.9971226400129226</v>
       </c>
       <c r="J17">
-        <v>0.9553944319387363</v>
+        <v>0.9850024173647374</v>
       </c>
       <c r="K17">
-        <v>1.088111623563394</v>
+        <v>1.036544086658786</v>
       </c>
       <c r="L17">
-        <v>0.9553944319387363</v>
+        <v>0.9850024173647374</v>
       </c>
       <c r="M17">
-        <v>0.9901032480739678</v>
+        <v>0.9910625286888299</v>
       </c>
       <c r="N17">
-        <v>0.9901032480739678</v>
+        <v>0.9910625286888299</v>
       </c>
       <c r="O17">
-        <v>1.001857468048874</v>
+        <v>0.9957877101463986</v>
       </c>
       <c r="P17">
-        <v>1.022772706570443</v>
+        <v>1.006223048012149</v>
       </c>
       <c r="Q17">
-        <v>1.022772706570443</v>
+        <v>1.006223048012149</v>
       </c>
       <c r="R17">
-        <v>1.039107435818681</v>
+        <v>1.013803307673808</v>
       </c>
       <c r="S17">
-        <v>1.039107435818681</v>
+        <v>1.013803307673808</v>
       </c>
       <c r="T17">
-        <v>0.9931925890117689</v>
+        <v>0.9963611426437073</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9857573809560516</v>
+        <v>0.9950493389529582</v>
       </c>
       <c r="D18">
-        <v>1.064379621914434</v>
+        <v>0.9395788043893717</v>
       </c>
       <c r="E18">
-        <v>1.016501908860489</v>
+        <v>1.007758021776985</v>
       </c>
       <c r="F18">
-        <v>0.9248606186270631</v>
+        <v>1.054306147978222</v>
       </c>
       <c r="G18">
-        <v>0.9248606186270631</v>
+        <v>1.054306147978222</v>
       </c>
       <c r="H18">
-        <v>1.088668912646401</v>
+        <v>0.9969158964927514</v>
       </c>
       <c r="I18">
-        <v>1.088668912646401</v>
+        <v>0.9969158964927514</v>
       </c>
       <c r="J18">
-        <v>1.014949669110977</v>
+        <v>0.9799850216717438</v>
       </c>
       <c r="K18">
-        <v>0.9248606186270631</v>
+        <v>1.054306147978222</v>
       </c>
       <c r="L18">
-        <v>1.014949669110977</v>
+        <v>0.9799850216717438</v>
       </c>
       <c r="M18">
-        <v>1.051809290878689</v>
+        <v>0.9884504590822476</v>
       </c>
       <c r="N18">
-        <v>1.051809290878689</v>
+        <v>0.9884504590822476</v>
       </c>
       <c r="O18">
-        <v>1.040040163539289</v>
+        <v>0.9948863133138269</v>
       </c>
       <c r="P18">
-        <v>1.009493066794813</v>
+        <v>1.010402355380906</v>
       </c>
       <c r="Q18">
-        <v>1.009493066794813</v>
+        <v>1.010402355380906</v>
       </c>
       <c r="R18">
-        <v>0.9883349547528759</v>
+        <v>1.021378303530235</v>
       </c>
       <c r="S18">
-        <v>0.9883349547528759</v>
+        <v>1.021378303530235</v>
       </c>
       <c r="T18">
-        <v>1.015853018685902</v>
+        <v>0.9955988718770055</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.982566848064498</v>
+        <v>0.9998830707076818</v>
       </c>
       <c r="D19">
-        <v>1.104062741632205</v>
+        <v>1.000694579872367</v>
       </c>
       <c r="E19">
-        <v>1.016959225228426</v>
+        <v>1.000019750360145</v>
       </c>
       <c r="F19">
-        <v>0.8916203183718099</v>
+        <v>0.9995486872504216</v>
       </c>
       <c r="G19">
-        <v>0.8916203183718099</v>
+        <v>0.9995486872504216</v>
       </c>
       <c r="H19">
-        <v>1.116877088677985</v>
+        <v>1.000784820436869</v>
       </c>
       <c r="I19">
-        <v>1.116877088677985</v>
+        <v>1.000784820436869</v>
       </c>
       <c r="J19">
-        <v>1.025466372349891</v>
+        <v>1.000124776338551</v>
       </c>
       <c r="K19">
-        <v>0.8916203183718099</v>
+        <v>0.9995486872504216</v>
       </c>
       <c r="L19">
-        <v>1.025466372349891</v>
+        <v>1.000124776338551</v>
       </c>
       <c r="M19">
-        <v>1.071171730513938</v>
+        <v>1.00045479838771</v>
       </c>
       <c r="N19">
-        <v>1.071171730513938</v>
+        <v>1.00045479838771</v>
       </c>
       <c r="O19">
-        <v>1.053100895418767</v>
+        <v>1.000309782378522</v>
       </c>
       <c r="P19">
-        <v>1.011321259799895</v>
+        <v>1.000152761341947</v>
       </c>
       <c r="Q19">
-        <v>1.011321259799895</v>
+        <v>1.000152761341947</v>
       </c>
       <c r="R19">
-        <v>0.981396024442874</v>
+        <v>1.000001742819066</v>
       </c>
       <c r="S19">
-        <v>0.981396024442874</v>
+        <v>1.000001742819066</v>
       </c>
       <c r="T19">
-        <v>1.022925432387469</v>
+        <v>1.000175947494339</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999309407965052</v>
+        <v>0.999791856583333</v>
       </c>
       <c r="D20">
-        <v>1.00304405912742</v>
+        <v>1.001586014349713</v>
       </c>
       <c r="E20">
-        <v>1.000135616856035</v>
+        <v>0.9998161643941119</v>
       </c>
       <c r="F20">
-        <v>0.996326224979731</v>
+        <v>0.9996113584745954</v>
       </c>
       <c r="G20">
-        <v>0.996326224979731</v>
+        <v>0.9996113584745954</v>
       </c>
       <c r="H20">
-        <v>1.000918552906954</v>
+        <v>1.001386073157659</v>
       </c>
       <c r="I20">
-        <v>1.000918552906954</v>
+        <v>1.001386073157659</v>
       </c>
       <c r="J20">
-        <v>1.001473472435609</v>
+        <v>1.000170066611662</v>
       </c>
       <c r="K20">
-        <v>0.996326224979731</v>
+        <v>0.9996113584745954</v>
       </c>
       <c r="L20">
-        <v>1.001473472435609</v>
+        <v>1.000170066611662</v>
       </c>
       <c r="M20">
-        <v>1.001196012671282</v>
+        <v>1.000778069884661</v>
       </c>
       <c r="N20">
-        <v>1.001196012671282</v>
+        <v>1.000778069884661</v>
       </c>
       <c r="O20">
-        <v>1.000842547399533</v>
+        <v>1.000457434721144</v>
       </c>
       <c r="P20">
-        <v>0.9995727501074314</v>
+        <v>1.000389166081306</v>
       </c>
       <c r="Q20">
-        <v>0.9995727501074313</v>
+        <v>1.000389166081306</v>
       </c>
       <c r="R20">
-        <v>0.9987611188255062</v>
+        <v>1.000194714179628</v>
       </c>
       <c r="S20">
-        <v>0.9987611188255062</v>
+        <v>1.000194714179628</v>
       </c>
       <c r="T20">
-        <v>1.000304811183709</v>
+        <v>1.000393588928512</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9998899103356096</v>
+        <v>0.999776081333195</v>
       </c>
       <c r="D21">
-        <v>0.9968942296842329</v>
+        <v>1.001184040744556</v>
       </c>
       <c r="E21">
-        <v>0.9999635757726629</v>
+        <v>0.9996084037569631</v>
       </c>
       <c r="F21">
-        <v>1.004022653101704</v>
+        <v>1.00078217216279</v>
       </c>
       <c r="G21">
-        <v>1.004022653101704</v>
+        <v>1.00078217216279</v>
       </c>
       <c r="H21">
-        <v>0.9997593175139168</v>
+        <v>1.001351079669106</v>
       </c>
       <c r="I21">
-        <v>0.9997593175139168</v>
+        <v>1.001351079669106</v>
       </c>
       <c r="J21">
-        <v>0.9982742615212041</v>
+        <v>0.9998220043066715</v>
       </c>
       <c r="K21">
-        <v>1.004022653101704</v>
+        <v>1.00078217216279</v>
       </c>
       <c r="L21">
-        <v>0.9982742615212041</v>
+        <v>0.9998220043066715</v>
       </c>
       <c r="M21">
-        <v>0.9990167895175605</v>
+        <v>1.000586541987889</v>
       </c>
       <c r="N21">
-        <v>0.9990167895175605</v>
+        <v>1.000586541987889</v>
       </c>
       <c r="O21">
-        <v>0.9993323849359279</v>
+        <v>1.000260495910914</v>
       </c>
       <c r="P21">
-        <v>1.000685410712275</v>
+        <v>1.00065175204619</v>
       </c>
       <c r="Q21">
-        <v>1.000685410712275</v>
+        <v>1.000651752046189</v>
       </c>
       <c r="R21">
-        <v>1.001519721309632</v>
+        <v>1.00068435707534</v>
       </c>
       <c r="S21">
-        <v>1.001519721309632</v>
+        <v>1.00068435707534</v>
       </c>
       <c r="T21">
-        <v>0.9998006579882217</v>
+        <v>1.00042063032888</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9993843958623611</v>
+        <v>0.9994253486345679</v>
       </c>
       <c r="D22">
-        <v>1.004031061709294</v>
+        <v>1.003902981967662</v>
       </c>
       <c r="E22">
-        <v>1.000651426531763</v>
+        <v>0.9993130034894974</v>
       </c>
       <c r="F22">
-        <v>0.9948425901970857</v>
+        <v>1.00004921021417</v>
       </c>
       <c r="G22">
-        <v>0.9948425901970857</v>
+        <v>1.00004921021417</v>
       </c>
       <c r="H22">
-        <v>1.000731750527894</v>
+        <v>1.003626066628297</v>
       </c>
       <c r="I22">
-        <v>1.000731750527894</v>
+        <v>1.003626066628297</v>
       </c>
       <c r="J22">
-        <v>1.002561852172989</v>
+        <v>1.000137055221159</v>
       </c>
       <c r="K22">
-        <v>0.9948425901970857</v>
+        <v>1.00004921021417</v>
       </c>
       <c r="L22">
-        <v>1.002561852172989</v>
+        <v>1.000137055221159</v>
       </c>
       <c r="M22">
-        <v>1.001646801350442</v>
+        <v>1.001881560924728</v>
       </c>
       <c r="N22">
-        <v>1.001646801350442</v>
+        <v>1.001881560924728</v>
       </c>
       <c r="O22">
-        <v>1.001315009744215</v>
+        <v>1.001025375112985</v>
       </c>
       <c r="P22">
-        <v>0.9993787309659896</v>
+        <v>1.001270777354542</v>
       </c>
       <c r="Q22">
-        <v>0.9993787309659895</v>
+        <v>1.001270777354542</v>
       </c>
       <c r="R22">
-        <v>0.9982446957737635</v>
+        <v>1.000965385569449</v>
       </c>
       <c r="S22">
-        <v>0.9982446957737635</v>
+        <v>1.000965385569449</v>
       </c>
       <c r="T22">
-        <v>1.000367179500231</v>
+        <v>1.001075611025892</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9991909099803656</v>
+      </c>
+      <c r="D23">
+        <v>1.003698294341228</v>
+      </c>
+      <c r="E23">
+        <v>0.9984249087532314</v>
+      </c>
+      <c r="F23">
+        <v>1.004327881850952</v>
+      </c>
+      <c r="G23">
+        <v>1.004327881850952</v>
+      </c>
+      <c r="H23">
+        <v>1.004400821146334</v>
+      </c>
+      <c r="I23">
+        <v>1.004400821146334</v>
+      </c>
+      <c r="J23">
+        <v>0.998810231350628</v>
+      </c>
+      <c r="K23">
+        <v>1.004327881850952</v>
+      </c>
+      <c r="L23">
+        <v>0.998810231350628</v>
+      </c>
+      <c r="M23">
+        <v>1.001605526248481</v>
+      </c>
+      <c r="N23">
+        <v>1.001605526248481</v>
+      </c>
+      <c r="O23">
+        <v>1.000545320416731</v>
+      </c>
+      <c r="P23">
+        <v>1.002512978115971</v>
+      </c>
+      <c r="Q23">
+        <v>1.002512978115971</v>
+      </c>
+      <c r="R23">
+        <v>1.002966704049716</v>
+      </c>
+      <c r="S23">
+        <v>1.002966704049716</v>
+      </c>
+      <c r="T23">
+        <v>1.00147550790379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.010562656342278</v>
+      </c>
+      <c r="D24">
+        <v>0.6076480114475263</v>
+      </c>
+      <c r="E24">
+        <v>1.042499214400601</v>
+      </c>
+      <c r="F24">
+        <v>1.226152087430778</v>
+      </c>
+      <c r="G24">
+        <v>1.226152087430778</v>
+      </c>
+      <c r="H24">
+        <v>0.8135648193026975</v>
+      </c>
+      <c r="I24">
+        <v>0.8135648193026975</v>
+      </c>
+      <c r="J24">
+        <v>0.9195313905494017</v>
+      </c>
+      <c r="K24">
+        <v>1.226152087430778</v>
+      </c>
+      <c r="L24">
+        <v>0.9195313905494017</v>
+      </c>
+      <c r="M24">
+        <v>0.8665481049260496</v>
+      </c>
+      <c r="N24">
+        <v>0.8665481049260496</v>
+      </c>
+      <c r="O24">
+        <v>0.9251984747509002</v>
+      </c>
+      <c r="P24">
+        <v>0.9864160990942925</v>
+      </c>
+      <c r="Q24">
+        <v>0.9864160990942925</v>
+      </c>
+      <c r="R24">
+        <v>1.046350096178414</v>
+      </c>
+      <c r="S24">
+        <v>1.046350096178414</v>
+      </c>
+      <c r="T24">
+        <v>0.9366596965788805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9769692938969803</v>
+      </c>
+      <c r="D25">
+        <v>1.146773738040237</v>
+      </c>
+      <c r="E25">
+        <v>1.001305353144287</v>
+      </c>
+      <c r="F25">
+        <v>0.9259020730545918</v>
+      </c>
+      <c r="G25">
+        <v>0.9259020730545918</v>
+      </c>
+      <c r="H25">
+        <v>1.19622858816455</v>
+      </c>
+      <c r="I25">
+        <v>1.19622858816455</v>
+      </c>
+      <c r="J25">
+        <v>0.9980379874609863</v>
+      </c>
+      <c r="K25">
+        <v>0.9259020730545918</v>
+      </c>
+      <c r="L25">
+        <v>0.9980379874609863</v>
+      </c>
+      <c r="M25">
+        <v>1.097133287812768</v>
+      </c>
+      <c r="N25">
+        <v>1.097133287812768</v>
+      </c>
+      <c r="O25">
+        <v>1.065190642923275</v>
+      </c>
+      <c r="P25">
+        <v>1.04005621622671</v>
+      </c>
+      <c r="Q25">
+        <v>1.04005621622671</v>
+      </c>
+      <c r="R25">
+        <v>1.01151768043368</v>
+      </c>
+      <c r="S25">
+        <v>1.01151768043368</v>
+      </c>
+      <c r="T25">
+        <v>1.040869505626939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9279295441835341</v>
+      </c>
+      <c r="D26">
+        <v>1.166244549060898</v>
+      </c>
+      <c r="E26">
+        <v>1.101895647005625</v>
+      </c>
+      <c r="F26">
+        <v>0.7594890053520396</v>
+      </c>
+      <c r="G26">
+        <v>0.7594890053520396</v>
+      </c>
+      <c r="H26">
+        <v>1.440559545107162</v>
+      </c>
+      <c r="I26">
+        <v>1.440559545107162</v>
+      </c>
+      <c r="J26">
+        <v>0.992844387141834</v>
+      </c>
+      <c r="K26">
+        <v>0.7594890053520396</v>
+      </c>
+      <c r="L26">
+        <v>0.992844387141834</v>
+      </c>
+      <c r="M26">
+        <v>1.216701966124498</v>
+      </c>
+      <c r="N26">
+        <v>1.216701966124498</v>
+      </c>
+      <c r="O26">
+        <v>1.178433193084874</v>
+      </c>
+      <c r="P26">
+        <v>1.064297645867012</v>
+      </c>
+      <c r="Q26">
+        <v>1.064297645867012</v>
+      </c>
+      <c r="R26">
+        <v>0.9880954857382689</v>
+      </c>
+      <c r="S26">
+        <v>0.9880954857382689</v>
+      </c>
+      <c r="T26">
+        <v>1.064827112975182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.003399005809783</v>
+      </c>
+      <c r="D27">
+        <v>0.8368033757414323</v>
+      </c>
+      <c r="E27">
+        <v>1.040837308069024</v>
+      </c>
+      <c r="F27">
+        <v>1.018211072495288</v>
+      </c>
+      <c r="G27">
+        <v>1.018211072495288</v>
+      </c>
+      <c r="H27">
+        <v>0.8597309207966093</v>
+      </c>
+      <c r="I27">
+        <v>0.8597309207966093</v>
+      </c>
+      <c r="J27">
+        <v>0.9981067985513478</v>
+      </c>
+      <c r="K27">
+        <v>1.018211072495288</v>
+      </c>
+      <c r="L27">
+        <v>0.9981067985513478</v>
+      </c>
+      <c r="M27">
+        <v>0.9289188596739786</v>
+      </c>
+      <c r="N27">
+        <v>0.9289188596739786</v>
+      </c>
+      <c r="O27">
+        <v>0.9662250091389938</v>
+      </c>
+      <c r="P27">
+        <v>0.958682930614415</v>
+      </c>
+      <c r="Q27">
+        <v>0.9586829306144149</v>
+      </c>
+      <c r="R27">
+        <v>0.9735649660846331</v>
+      </c>
+      <c r="S27">
+        <v>0.9735649660846331</v>
+      </c>
+      <c r="T27">
+        <v>0.9595147469105806</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9861619971661297</v>
+      </c>
+      <c r="D28">
+        <v>0.7860611369087336</v>
+      </c>
+      <c r="E28">
+        <v>1.029578190031759</v>
+      </c>
+      <c r="F28">
+        <v>1.171200274466133</v>
+      </c>
+      <c r="G28">
+        <v>1.171200274466133</v>
+      </c>
+      <c r="H28">
+        <v>0.9919431473805873</v>
+      </c>
+      <c r="I28">
+        <v>0.9919431473805873</v>
+      </c>
+      <c r="J28">
+        <v>0.9252190678924933</v>
+      </c>
+      <c r="K28">
+        <v>1.171200274466133</v>
+      </c>
+      <c r="L28">
+        <v>0.9252190678924933</v>
+      </c>
+      <c r="M28">
+        <v>0.9585811076365403</v>
+      </c>
+      <c r="N28">
+        <v>0.9585811076365403</v>
+      </c>
+      <c r="O28">
+        <v>0.9822468017682798</v>
+      </c>
+      <c r="P28">
+        <v>1.029454163246404</v>
+      </c>
+      <c r="Q28">
+        <v>1.029454163246404</v>
+      </c>
+      <c r="R28">
+        <v>1.064890691051336</v>
+      </c>
+      <c r="S28">
+        <v>1.064890691051336</v>
+      </c>
+      <c r="T28">
+        <v>0.9816939689743061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9859476713722346</v>
+      </c>
+      <c r="D29">
+        <v>0.8795238349883636</v>
+      </c>
+      <c r="E29">
+        <v>1.025365907998686</v>
+      </c>
+      <c r="F29">
+        <v>1.088111623563394</v>
+      </c>
+      <c r="G29">
+        <v>1.088111623563394</v>
+      </c>
+      <c r="H29">
+        <v>1.024812064209199</v>
+      </c>
+      <c r="I29">
+        <v>1.024812064209199</v>
+      </c>
+      <c r="J29">
+        <v>0.9553944319387363</v>
+      </c>
+      <c r="K29">
+        <v>1.088111623563394</v>
+      </c>
+      <c r="L29">
+        <v>0.9553944319387363</v>
+      </c>
+      <c r="M29">
+        <v>0.9901032480739678</v>
+      </c>
+      <c r="N29">
+        <v>0.9901032480739678</v>
+      </c>
+      <c r="O29">
+        <v>1.001857468048874</v>
+      </c>
+      <c r="P29">
+        <v>1.022772706570443</v>
+      </c>
+      <c r="Q29">
+        <v>1.022772706570443</v>
+      </c>
+      <c r="R29">
+        <v>1.039107435818681</v>
+      </c>
+      <c r="S29">
+        <v>1.039107435818681</v>
+      </c>
+      <c r="T29">
+        <v>0.9931925890117689</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9857573809560516</v>
+      </c>
+      <c r="D30">
+        <v>1.064379621914434</v>
+      </c>
+      <c r="E30">
+        <v>1.016501908860489</v>
+      </c>
+      <c r="F30">
+        <v>0.9248606186270631</v>
+      </c>
+      <c r="G30">
+        <v>0.9248606186270631</v>
+      </c>
+      <c r="H30">
+        <v>1.088668912646401</v>
+      </c>
+      <c r="I30">
+        <v>1.088668912646401</v>
+      </c>
+      <c r="J30">
+        <v>1.014949669110977</v>
+      </c>
+      <c r="K30">
+        <v>0.9248606186270631</v>
+      </c>
+      <c r="L30">
+        <v>1.014949669110977</v>
+      </c>
+      <c r="M30">
+        <v>1.051809290878689</v>
+      </c>
+      <c r="N30">
+        <v>1.051809290878689</v>
+      </c>
+      <c r="O30">
+        <v>1.040040163539289</v>
+      </c>
+      <c r="P30">
+        <v>1.009493066794813</v>
+      </c>
+      <c r="Q30">
+        <v>1.009493066794813</v>
+      </c>
+      <c r="R30">
+        <v>0.9883349547528759</v>
+      </c>
+      <c r="S30">
+        <v>0.9883349547528759</v>
+      </c>
+      <c r="T30">
+        <v>1.015853018685902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.982566848064498</v>
+      </c>
+      <c r="D31">
+        <v>1.104062741632205</v>
+      </c>
+      <c r="E31">
+        <v>1.016959225228426</v>
+      </c>
+      <c r="F31">
+        <v>0.8916203183718099</v>
+      </c>
+      <c r="G31">
+        <v>0.8916203183718099</v>
+      </c>
+      <c r="H31">
+        <v>1.116877088677985</v>
+      </c>
+      <c r="I31">
+        <v>1.116877088677985</v>
+      </c>
+      <c r="J31">
+        <v>1.025466372349891</v>
+      </c>
+      <c r="K31">
+        <v>0.8916203183718099</v>
+      </c>
+      <c r="L31">
+        <v>1.025466372349891</v>
+      </c>
+      <c r="M31">
+        <v>1.071171730513938</v>
+      </c>
+      <c r="N31">
+        <v>1.071171730513938</v>
+      </c>
+      <c r="O31">
+        <v>1.053100895418767</v>
+      </c>
+      <c r="P31">
+        <v>1.011321259799895</v>
+      </c>
+      <c r="Q31">
+        <v>1.011321259799895</v>
+      </c>
+      <c r="R31">
+        <v>0.981396024442874</v>
+      </c>
+      <c r="S31">
+        <v>0.981396024442874</v>
+      </c>
+      <c r="T31">
+        <v>1.022925432387469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9883621123287667</v>
+      </c>
+      <c r="D32">
+        <v>0.6863503221917808</v>
+      </c>
+      <c r="E32">
+        <v>1.024913314657534</v>
+      </c>
+      <c r="F32">
+        <v>1.284299527671233</v>
+      </c>
+      <c r="G32">
+        <v>1.284299527671233</v>
+      </c>
+      <c r="H32">
+        <v>0.9465206117260273</v>
+      </c>
+      <c r="I32">
+        <v>0.9465206117260273</v>
+      </c>
+      <c r="J32">
+        <v>0.8885736301369862</v>
+      </c>
+      <c r="K32">
+        <v>1.284299527671233</v>
+      </c>
+      <c r="L32">
+        <v>0.8885736301369862</v>
+      </c>
+      <c r="M32">
+        <v>0.9175471209315067</v>
+      </c>
+      <c r="N32">
+        <v>0.9175471209315067</v>
+      </c>
+      <c r="O32">
+        <v>0.9533358521735159</v>
+      </c>
+      <c r="P32">
+        <v>1.039797923178082</v>
+      </c>
+      <c r="Q32">
+        <v>1.039797923178082</v>
+      </c>
+      <c r="R32">
+        <v>1.10092332430137</v>
+      </c>
+      <c r="S32">
+        <v>1.10092332430137</v>
+      </c>
+      <c r="T32">
+        <v>0.9698365864520548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.005530841052632</v>
+      </c>
+      <c r="D33">
+        <v>1.853414268421052</v>
+      </c>
+      <c r="E33">
+        <v>0.8018328494736843</v>
+      </c>
+      <c r="F33">
+        <v>0.7597024536842105</v>
+      </c>
+      <c r="G33">
+        <v>0.7597024536842105</v>
+      </c>
+      <c r="H33">
+        <v>1.210274136421053</v>
+      </c>
+      <c r="I33">
+        <v>1.210274136421053</v>
+      </c>
+      <c r="J33">
+        <v>1.14886451</v>
+      </c>
+      <c r="K33">
+        <v>0.7597024536842105</v>
+      </c>
+      <c r="L33">
+        <v>1.14886451</v>
+      </c>
+      <c r="M33">
+        <v>1.179569323210526</v>
+      </c>
+      <c r="N33">
+        <v>1.179569323210526</v>
+      </c>
+      <c r="O33">
+        <v>1.053657165298246</v>
+      </c>
+      <c r="P33">
+        <v>1.039613700035088</v>
+      </c>
+      <c r="Q33">
+        <v>1.039613700035088</v>
+      </c>
+      <c r="R33">
+        <v>0.9696358884473684</v>
+      </c>
+      <c r="S33">
+        <v>0.9696358884473684</v>
+      </c>
+      <c r="T33">
+        <v>1.129936509842105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.138605148421053</v>
+      </c>
+      <c r="D34">
+        <v>1.192750551052632</v>
+      </c>
+      <c r="E34">
+        <v>0.6701385515789475</v>
+      </c>
+      <c r="F34">
+        <v>1.378430999473684</v>
+      </c>
+      <c r="G34">
+        <v>1.378430999473684</v>
+      </c>
+      <c r="H34">
+        <v>0.4639429711578947</v>
+      </c>
+      <c r="I34">
+        <v>0.4639429711578947</v>
+      </c>
+      <c r="J34">
+        <v>1.060011593157895</v>
+      </c>
+      <c r="K34">
+        <v>1.378430999473684</v>
+      </c>
+      <c r="L34">
+        <v>1.060011593157895</v>
+      </c>
+      <c r="M34">
+        <v>0.7619772821578947</v>
+      </c>
+      <c r="N34">
+        <v>0.7619772821578947</v>
+      </c>
+      <c r="O34">
+        <v>0.7313643719649123</v>
+      </c>
+      <c r="P34">
+        <v>0.9674618545964911</v>
+      </c>
+      <c r="Q34">
+        <v>0.9674618545964911</v>
+      </c>
+      <c r="R34">
+        <v>1.070204140815789</v>
+      </c>
+      <c r="S34">
+        <v>1.070204140815789</v>
+      </c>
+      <c r="T34">
+        <v>0.9839799691403509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9291369369976259</v>
+      </c>
+      <c r="D35">
+        <v>1.418330462172698</v>
+      </c>
+      <c r="E35">
+        <v>1.057137663504084</v>
+      </c>
+      <c r="F35">
+        <v>0.58272788125859</v>
+      </c>
+      <c r="G35">
+        <v>0.58272788125859</v>
+      </c>
+      <c r="H35">
+        <v>1.478359657136803</v>
+      </c>
+      <c r="I35">
+        <v>1.478359657136803</v>
+      </c>
+      <c r="J35">
+        <v>1.108357553965204</v>
+      </c>
+      <c r="K35">
+        <v>0.58272788125859</v>
+      </c>
+      <c r="L35">
+        <v>1.108357553965204</v>
+      </c>
+      <c r="M35">
+        <v>1.293358605551003</v>
+      </c>
+      <c r="N35">
+        <v>1.293358605551003</v>
+      </c>
+      <c r="O35">
+        <v>1.214618291535364</v>
+      </c>
+      <c r="P35">
+        <v>1.056481697453532</v>
+      </c>
+      <c r="Q35">
+        <v>1.056481697453532</v>
+      </c>
+      <c r="R35">
+        <v>0.9380432434047965</v>
+      </c>
+      <c r="S35">
+        <v>0.9380432434047965</v>
+      </c>
+      <c r="T35">
+        <v>1.095675025839167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999309407965052</v>
+      </c>
+      <c r="D36">
+        <v>1.00304405912742</v>
+      </c>
+      <c r="E36">
+        <v>1.000135616856035</v>
+      </c>
+      <c r="F36">
+        <v>0.996326224979731</v>
+      </c>
+      <c r="G36">
+        <v>0.996326224979731</v>
+      </c>
+      <c r="H36">
+        <v>1.000918552906954</v>
+      </c>
+      <c r="I36">
+        <v>1.000918552906954</v>
+      </c>
+      <c r="J36">
+        <v>1.001473472435609</v>
+      </c>
+      <c r="K36">
+        <v>0.996326224979731</v>
+      </c>
+      <c r="L36">
+        <v>1.001473472435609</v>
+      </c>
+      <c r="M36">
+        <v>1.001196012671282</v>
+      </c>
+      <c r="N36">
+        <v>1.001196012671282</v>
+      </c>
+      <c r="O36">
+        <v>1.000842547399533</v>
+      </c>
+      <c r="P36">
+        <v>0.9995727501074314</v>
+      </c>
+      <c r="Q36">
+        <v>0.9995727501074313</v>
+      </c>
+      <c r="R36">
+        <v>0.9987611188255062</v>
+      </c>
+      <c r="S36">
+        <v>0.9987611188255062</v>
+      </c>
+      <c r="T36">
+        <v>1.000304811183709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9998899103356096</v>
+      </c>
+      <c r="D37">
+        <v>0.9968942296842329</v>
+      </c>
+      <c r="E37">
+        <v>0.9999635757726629</v>
+      </c>
+      <c r="F37">
+        <v>1.004022653101704</v>
+      </c>
+      <c r="G37">
+        <v>1.004022653101704</v>
+      </c>
+      <c r="H37">
+        <v>0.9997593175139168</v>
+      </c>
+      <c r="I37">
+        <v>0.9997593175139168</v>
+      </c>
+      <c r="J37">
+        <v>0.9982742615212041</v>
+      </c>
+      <c r="K37">
+        <v>1.004022653101704</v>
+      </c>
+      <c r="L37">
+        <v>0.9982742615212041</v>
+      </c>
+      <c r="M37">
+        <v>0.9990167895175605</v>
+      </c>
+      <c r="N37">
+        <v>0.9990167895175605</v>
+      </c>
+      <c r="O37">
+        <v>0.9993323849359279</v>
+      </c>
+      <c r="P37">
+        <v>1.000685410712275</v>
+      </c>
+      <c r="Q37">
+        <v>1.000685410712275</v>
+      </c>
+      <c r="R37">
+        <v>1.001519721309632</v>
+      </c>
+      <c r="S37">
+        <v>1.001519721309632</v>
+      </c>
+      <c r="T37">
+        <v>0.9998006579882217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9993843958623611</v>
+      </c>
+      <c r="D38">
+        <v>1.004031061709294</v>
+      </c>
+      <c r="E38">
+        <v>1.000651426531763</v>
+      </c>
+      <c r="F38">
+        <v>0.9948425901970857</v>
+      </c>
+      <c r="G38">
+        <v>0.9948425901970857</v>
+      </c>
+      <c r="H38">
+        <v>1.000731750527894</v>
+      </c>
+      <c r="I38">
+        <v>1.000731750527894</v>
+      </c>
+      <c r="J38">
+        <v>1.002561852172989</v>
+      </c>
+      <c r="K38">
+        <v>0.9948425901970857</v>
+      </c>
+      <c r="L38">
+        <v>1.002561852172989</v>
+      </c>
+      <c r="M38">
+        <v>1.001646801350442</v>
+      </c>
+      <c r="N38">
+        <v>1.001646801350442</v>
+      </c>
+      <c r="O38">
+        <v>1.001315009744215</v>
+      </c>
+      <c r="P38">
+        <v>0.9993787309659896</v>
+      </c>
+      <c r="Q38">
+        <v>0.9993787309659895</v>
+      </c>
+      <c r="R38">
+        <v>0.9982446957737635</v>
+      </c>
+      <c r="S38">
+        <v>0.9982446957737635</v>
+      </c>
+      <c r="T38">
+        <v>1.000367179500231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9999566947849777</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.014846105841701</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.002547176188888</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.97280487670134</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.97280487670134</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.003336163301229</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.003336163301229</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.011040282410761</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.97280487670134</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.011040282410761</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.007188222855995</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.007188222855995</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.005641207300292</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9957271074711102</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9957271074711102</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9899965497786676</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9899965497786676</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000755216538149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.041711041305126</v>
+      </c>
+      <c r="D40">
+        <v>1.211709231932758</v>
+      </c>
+      <c r="E40">
+        <v>0.8888890447121203</v>
+      </c>
+      <c r="F40">
+        <v>1.010401068960471</v>
+      </c>
+      <c r="G40">
+        <v>1.010401068960471</v>
+      </c>
+      <c r="H40">
+        <v>0.8511985933908125</v>
+      </c>
+      <c r="I40">
+        <v>0.8511985933908125</v>
+      </c>
+      <c r="J40">
+        <v>1.057405428091932</v>
+      </c>
+      <c r="K40">
+        <v>1.010401068960471</v>
+      </c>
+      <c r="L40">
+        <v>1.057405428091932</v>
+      </c>
+      <c r="M40">
+        <v>0.9543020107413724</v>
+      </c>
+      <c r="N40">
+        <v>0.9543020107413724</v>
+      </c>
+      <c r="O40">
+        <v>0.9324976887316216</v>
+      </c>
+      <c r="P40">
+        <v>0.9730016968144053</v>
+      </c>
+      <c r="Q40">
+        <v>0.9730016968144053</v>
+      </c>
+      <c r="R40">
+        <v>0.9823515398509217</v>
+      </c>
+      <c r="S40">
+        <v>0.9823515398509217</v>
+      </c>
+      <c r="T40">
+        <v>1.010219068065537</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9997441609847597</v>
+      </c>
+      <c r="D41">
+        <v>0.9314125759744956</v>
+      </c>
+      <c r="E41">
+        <v>1.009621889042372</v>
+      </c>
+      <c r="F41">
+        <v>1.032761169695801</v>
+      </c>
+      <c r="G41">
+        <v>1.032761169695801</v>
+      </c>
+      <c r="H41">
+        <v>0.9880255319821574</v>
+      </c>
+      <c r="I41">
+        <v>0.9880255319821574</v>
+      </c>
+      <c r="J41">
+        <v>0.9871492942434555</v>
+      </c>
+      <c r="K41">
+        <v>1.032761169695801</v>
+      </c>
+      <c r="L41">
+        <v>0.9871492942434555</v>
+      </c>
+      <c r="M41">
+        <v>0.9875874131128064</v>
+      </c>
+      <c r="N41">
+        <v>0.9875874131128064</v>
+      </c>
+      <c r="O41">
+        <v>0.9949322384226615</v>
+      </c>
+      <c r="P41">
+        <v>1.002645331973804</v>
+      </c>
+      <c r="Q41">
+        <v>1.002645331973804</v>
+      </c>
+      <c r="R41">
+        <v>1.010174291404303</v>
+      </c>
+      <c r="S41">
+        <v>1.010174291404303</v>
+      </c>
+      <c r="T41">
+        <v>0.9914524369871733</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.001151260223204</v>
+      </c>
+      <c r="D42">
+        <v>1.049891547742063</v>
+      </c>
+      <c r="E42">
+        <v>0.9891924132267754</v>
+      </c>
+      <c r="F42">
+        <v>0.9812773772057157</v>
+      </c>
+      <c r="G42">
+        <v>0.9812773772057157</v>
+      </c>
+      <c r="H42">
+        <v>1.009172933365678</v>
+      </c>
+      <c r="I42">
+        <v>1.009172933365678</v>
+      </c>
+      <c r="J42">
+        <v>1.01109738017723</v>
+      </c>
+      <c r="K42">
+        <v>0.9812773772057157</v>
+      </c>
+      <c r="L42">
+        <v>1.01109738017723</v>
+      </c>
+      <c r="M42">
+        <v>1.010135156771454</v>
+      </c>
+      <c r="N42">
+        <v>1.010135156771454</v>
+      </c>
+      <c r="O42">
+        <v>1.003154242256561</v>
+      </c>
+      <c r="P42">
+        <v>1.000515896916208</v>
+      </c>
+      <c r="Q42">
+        <v>1.000515896916208</v>
+      </c>
+      <c r="R42">
+        <v>0.9957062669885848</v>
+      </c>
+      <c r="S42">
+        <v>0.9957062669885848</v>
+      </c>
+      <c r="T42">
+        <v>1.006963818656778</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW15.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.010313643421926</v>
+        <v>0.999791856583333</v>
       </c>
       <c r="D3">
-        <v>0.9988668487488201</v>
+        <v>1.001586014349713</v>
       </c>
       <c r="E3">
-        <v>0.9957608877534186</v>
+        <v>0.9998161643941119</v>
       </c>
       <c r="F3">
-        <v>1.010313643421926</v>
+        <v>0.9996113584745954</v>
       </c>
       <c r="G3">
-        <v>0.9878296850411552</v>
+        <v>0.9996113584745954</v>
       </c>
       <c r="H3">
-        <v>1.001433247393378</v>
+        <v>1.001386073157659</v>
       </c>
       <c r="I3">
-        <v>0.9992840340062283</v>
+        <v>1.001386073157659</v>
       </c>
       <c r="J3">
-        <v>0.9988668487488201</v>
+        <v>1.000170066611662</v>
       </c>
       <c r="K3">
-        <v>1.010313643421926</v>
+        <v>0.9996113584745954</v>
       </c>
       <c r="L3">
-        <v>0.9957608877534186</v>
+        <v>1.000170066611662</v>
       </c>
       <c r="M3">
-        <v>0.9973138682511193</v>
+        <v>1.000778069884661</v>
       </c>
       <c r="N3">
-        <v>0.9973138682511193</v>
+        <v>1.000778069884661</v>
       </c>
       <c r="O3">
-        <v>0.9986869946318722</v>
+        <v>1.000457434721144</v>
       </c>
       <c r="P3">
-        <v>1.001647126641388</v>
+        <v>1.000389166081306</v>
       </c>
       <c r="Q3">
-        <v>1.001647126641388</v>
+        <v>1.000389166081306</v>
       </c>
       <c r="R3">
-        <v>1.003813755836523</v>
+        <v>1.000194714179628</v>
       </c>
       <c r="S3">
-        <v>1.003813755836523</v>
+        <v>1.000194714179628</v>
       </c>
       <c r="T3">
-        <v>0.9989147243941544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000393588928512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.020327310461459</v>
+        <v>1.041711041305126</v>
       </c>
       <c r="D4">
-        <v>0.997589033456908</v>
+        <v>1.211709231932758</v>
       </c>
       <c r="E4">
-        <v>0.9916335107254579</v>
+        <v>0.8888890447121203</v>
       </c>
       <c r="F4">
-        <v>1.020327310461459</v>
+        <v>1.010401068960471</v>
       </c>
       <c r="G4">
-        <v>0.9761204295953141</v>
+        <v>1.010401068960471</v>
       </c>
       <c r="H4">
-        <v>1.002724914057606</v>
+        <v>0.8511985933908125</v>
       </c>
       <c r="I4">
-        <v>0.9986395087887119</v>
+        <v>0.8511985933908125</v>
       </c>
       <c r="J4">
-        <v>0.997589033456908</v>
+        <v>1.057405428091932</v>
       </c>
       <c r="K4">
-        <v>1.020327310461459</v>
+        <v>1.010401068960471</v>
       </c>
       <c r="L4">
-        <v>0.9916335107254579</v>
+        <v>1.057405428091932</v>
       </c>
       <c r="M4">
-        <v>0.9946112720911829</v>
+        <v>0.9543020107413724</v>
       </c>
       <c r="N4">
-        <v>0.9946112720911829</v>
+        <v>0.9543020107413724</v>
       </c>
       <c r="O4">
-        <v>0.9973158194133239</v>
+        <v>0.9324976887316216</v>
       </c>
       <c r="P4">
-        <v>1.003183284881275</v>
+        <v>0.9730016968144053</v>
       </c>
       <c r="Q4">
-        <v>1.003183284881275</v>
+        <v>0.9730016968144053</v>
       </c>
       <c r="R4">
-        <v>1.007469291276321</v>
+        <v>0.9823515398509217</v>
       </c>
       <c r="S4">
-        <v>1.007469291276321</v>
+        <v>0.9823515398509217</v>
       </c>
       <c r="T4">
-        <v>0.9978391178475761</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.010219068065537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.036544086658786</v>
+        <v>0.9847955213112388</v>
       </c>
       <c r="D5">
-        <v>0.9971226400129224</v>
+        <v>1.07733514477666</v>
       </c>
       <c r="E5">
-        <v>0.9850024173647374</v>
+        <v>1.015052264697405</v>
       </c>
       <c r="F5">
-        <v>1.036544086658786</v>
+        <v>0.9172441617363132</v>
       </c>
       <c r="G5">
-        <v>0.9570653835116948</v>
+        <v>0.9172441617363132</v>
       </c>
       <c r="H5">
-        <v>1.005238073061536</v>
+        <v>1.098549936276654</v>
       </c>
       <c r="I5">
-        <v>0.9971942552525678</v>
+        <v>1.098549936276654</v>
       </c>
       <c r="J5">
-        <v>0.9971226400129224</v>
+        <v>1.018573960266572</v>
       </c>
       <c r="K5">
-        <v>1.036544086658786</v>
+        <v>0.9172441617363132</v>
       </c>
       <c r="L5">
-        <v>0.9850024173647374</v>
+        <v>1.018573960266572</v>
       </c>
       <c r="M5">
-        <v>0.9910625286888299</v>
+        <v>1.058561948271613</v>
       </c>
       <c r="N5">
-        <v>0.9910625286888299</v>
+        <v>1.058561948271613</v>
       </c>
       <c r="O5">
-        <v>0.9957877101463986</v>
+        <v>1.044058720413544</v>
       </c>
       <c r="P5">
-        <v>1.006223048012149</v>
+        <v>1.011456019426513</v>
       </c>
       <c r="Q5">
-        <v>1.006223048012148</v>
+        <v>1.011456019426513</v>
       </c>
       <c r="R5">
-        <v>1.013803307673808</v>
+        <v>0.9879030550039634</v>
       </c>
       <c r="S5">
-        <v>1.013803307673808</v>
+        <v>0.9879030550039634</v>
       </c>
       <c r="T5">
-        <v>0.9963611426437072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.018591831510807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.054306147978222</v>
+        <v>0.9291369369976259</v>
       </c>
       <c r="D6">
-        <v>0.9969158964927511</v>
+        <v>1.418330462172698</v>
       </c>
       <c r="E6">
-        <v>0.9799850216717438</v>
+        <v>1.057137663504084</v>
       </c>
       <c r="F6">
-        <v>1.054306147978222</v>
+        <v>0.58272788125859</v>
       </c>
       <c r="G6">
-        <v>0.9395788043893717</v>
+        <v>0.58272788125859</v>
       </c>
       <c r="H6">
-        <v>1.007758021776985</v>
+        <v>1.478359657136803</v>
       </c>
       <c r="I6">
-        <v>0.9950493389529582</v>
+        <v>1.478359657136803</v>
       </c>
       <c r="J6">
-        <v>0.9969158964927511</v>
+        <v>1.108357553965204</v>
       </c>
       <c r="K6">
-        <v>1.054306147978222</v>
+        <v>0.58272788125859</v>
       </c>
       <c r="L6">
-        <v>0.9799850216717438</v>
+        <v>1.108357553965204</v>
       </c>
       <c r="M6">
-        <v>0.9884504590822475</v>
+        <v>1.293358605551003</v>
       </c>
       <c r="N6">
-        <v>0.9884504590822475</v>
+        <v>1.293358605551003</v>
       </c>
       <c r="O6">
-        <v>0.9948863133138269</v>
+        <v>1.214618291535364</v>
       </c>
       <c r="P6">
-        <v>1.010402355380906</v>
+        <v>1.056481697453532</v>
       </c>
       <c r="Q6">
-        <v>1.010402355380905</v>
+        <v>1.056481697453532</v>
       </c>
       <c r="R6">
-        <v>1.021378303530235</v>
+        <v>0.9380432434047965</v>
       </c>
       <c r="S6">
-        <v>1.021378303530235</v>
+        <v>0.9380432434047965</v>
       </c>
       <c r="T6">
-        <v>0.9955988718770054</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.095675025839167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9995486872504211</v>
+        <v>1.000076061940366</v>
       </c>
       <c r="D7">
-        <v>1.000784820436869</v>
+        <v>0.9857662250145853</v>
       </c>
       <c r="E7">
-        <v>1.000124776338551</v>
+        <v>1.000183334274813</v>
       </c>
       <c r="F7">
-        <v>0.9995486872504211</v>
+        <v>1.013895530320609</v>
       </c>
       <c r="G7">
-        <v>1.000694579872367</v>
+        <v>1.013895530320609</v>
       </c>
       <c r="H7">
-        <v>1.000019750360145</v>
+        <v>0.9956122433398245</v>
       </c>
       <c r="I7">
-        <v>0.9998830707076815</v>
+        <v>0.9956122433398245</v>
       </c>
       <c r="J7">
-        <v>1.000784820436869</v>
+        <v>0.9950192942077858</v>
       </c>
       <c r="K7">
-        <v>0.9995486872504211</v>
+        <v>1.013895530320609</v>
       </c>
       <c r="L7">
-        <v>1.000124776338551</v>
+        <v>0.9950192942077858</v>
       </c>
       <c r="M7">
-        <v>1.00045479838771</v>
+        <v>0.9953157687738051</v>
       </c>
       <c r="N7">
-        <v>1.00045479838771</v>
+        <v>0.9953157687738051</v>
       </c>
       <c r="O7">
-        <v>1.000309782378522</v>
+        <v>0.9969382906074742</v>
       </c>
       <c r="P7">
-        <v>1.000152761341947</v>
+        <v>1.00150902262274</v>
       </c>
       <c r="Q7">
-        <v>1.000152761341947</v>
+        <v>1.00150902262274</v>
       </c>
       <c r="R7">
-        <v>1.000001742819066</v>
+        <v>1.004605649547207</v>
       </c>
       <c r="S7">
-        <v>1.000001742819066</v>
+        <v>1.004605649547207</v>
       </c>
       <c r="T7">
-        <v>1.000175947494339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9984254481829972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999611358474595</v>
+        <v>0.9998899103356096</v>
       </c>
       <c r="D8">
-        <v>1.001386073157658</v>
+        <v>0.9968942296842329</v>
       </c>
       <c r="E8">
-        <v>1.000170066611662</v>
+        <v>0.9999635757726629</v>
       </c>
       <c r="F8">
-        <v>0.999611358474595</v>
+        <v>1.004022653101704</v>
       </c>
       <c r="G8">
-        <v>1.001586014349714</v>
+        <v>1.004022653101704</v>
       </c>
       <c r="H8">
-        <v>0.9998161643941115</v>
+        <v>0.9997593175139168</v>
       </c>
       <c r="I8">
-        <v>0.9997918565833332</v>
+        <v>0.9997593175139168</v>
       </c>
       <c r="J8">
-        <v>1.001386073157658</v>
+        <v>0.9982742615212041</v>
       </c>
       <c r="K8">
-        <v>0.999611358474595</v>
+        <v>1.004022653101704</v>
       </c>
       <c r="L8">
-        <v>1.000170066611662</v>
+        <v>0.9982742615212041</v>
       </c>
       <c r="M8">
-        <v>1.00077806988466</v>
+        <v>0.9990167895175605</v>
       </c>
       <c r="N8">
-        <v>1.00077806988466</v>
+        <v>0.9990167895175605</v>
       </c>
       <c r="O8">
-        <v>1.000457434721144</v>
+        <v>0.9993323849359279</v>
       </c>
       <c r="P8">
-        <v>1.000389166081305</v>
+        <v>1.000685410712275</v>
       </c>
       <c r="Q8">
-        <v>1.000389166081305</v>
+        <v>1.000685410712275</v>
       </c>
       <c r="R8">
-        <v>1.000194714179627</v>
+        <v>1.001519721309632</v>
       </c>
       <c r="S8">
-        <v>1.000194714179627</v>
+        <v>1.001519721309632</v>
       </c>
       <c r="T8">
-        <v>1.000393588928512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9998006579882217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00078217216279</v>
+        <v>0.9986395087887119</v>
       </c>
       <c r="D9">
-        <v>1.001351079669106</v>
+        <v>0.9761204295953141</v>
       </c>
       <c r="E9">
-        <v>0.9998220043066715</v>
+        <v>1.002724914057606</v>
       </c>
       <c r="F9">
-        <v>1.00078217216279</v>
+        <v>1.020327310461459</v>
       </c>
       <c r="G9">
-        <v>1.001184040744556</v>
+        <v>1.020327310461459</v>
       </c>
       <c r="H9">
-        <v>0.9996084037569632</v>
+        <v>0.997589033456908</v>
       </c>
       <c r="I9">
-        <v>0.999776081333195</v>
+        <v>0.997589033456908</v>
       </c>
       <c r="J9">
-        <v>1.001351079669106</v>
+        <v>0.9916335107254579</v>
       </c>
       <c r="K9">
-        <v>1.00078217216279</v>
+        <v>1.020327310461459</v>
       </c>
       <c r="L9">
-        <v>0.9998220043066715</v>
+        <v>0.9916335107254579</v>
       </c>
       <c r="M9">
-        <v>1.000586541987889</v>
+        <v>0.9946112720911829</v>
       </c>
       <c r="N9">
-        <v>1.000586541987889</v>
+        <v>0.9946112720911829</v>
       </c>
       <c r="O9">
-        <v>1.000260495910914</v>
+        <v>0.9973158194133239</v>
       </c>
       <c r="P9">
-        <v>1.000651752046189</v>
+        <v>1.003183284881275</v>
       </c>
       <c r="Q9">
-        <v>1.000651752046189</v>
+        <v>1.003183284881275</v>
       </c>
       <c r="R9">
-        <v>1.000684357075339</v>
+        <v>1.007469291276321</v>
       </c>
       <c r="S9">
-        <v>1.000684357075339</v>
+        <v>1.007469291276321</v>
       </c>
       <c r="T9">
-        <v>1.00042063032888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9978391178475761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00004921021417</v>
+        <v>0.9272951428562918</v>
       </c>
       <c r="D10">
-        <v>1.003626066628297</v>
+        <v>1.433197042878555</v>
       </c>
       <c r="E10">
-        <v>1.000137055221159</v>
+        <v>1.057913229309711</v>
       </c>
       <c r="F10">
-        <v>1.00004921021417</v>
+        <v>0.5707094790691642</v>
       </c>
       <c r="G10">
-        <v>1.003902981967662</v>
+        <v>0.5707094790691642</v>
       </c>
       <c r="H10">
-        <v>0.9993130034894974</v>
+        <v>1.492205085168194</v>
       </c>
       <c r="I10">
-        <v>0.9994253486345679</v>
+        <v>1.492205085168194</v>
       </c>
       <c r="J10">
-        <v>1.003626066628297</v>
+        <v>1.111374110853279</v>
       </c>
       <c r="K10">
-        <v>1.00004921021417</v>
+        <v>0.5707094790691642</v>
       </c>
       <c r="L10">
-        <v>1.000137055221159</v>
+        <v>1.111374110853279</v>
       </c>
       <c r="M10">
-        <v>1.001881560924728</v>
+        <v>1.301789598010736</v>
       </c>
       <c r="N10">
-        <v>1.001881560924728</v>
+        <v>1.301789598010736</v>
       </c>
       <c r="O10">
-        <v>1.001025375112985</v>
+        <v>1.220497475110395</v>
       </c>
       <c r="P10">
-        <v>1.001270777354542</v>
+        <v>1.058096225030212</v>
       </c>
       <c r="Q10">
-        <v>1.001270777354542</v>
+        <v>1.058096225030212</v>
       </c>
       <c r="R10">
-        <v>1.000965385569449</v>
+        <v>0.9362495385399502</v>
       </c>
       <c r="S10">
-        <v>1.000965385569449</v>
+        <v>0.9362495385399502</v>
       </c>
       <c r="T10">
-        <v>1.001075611025892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.098782348355866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.004327881850952</v>
+        <v>1.038434475307687</v>
       </c>
       <c r="D11">
-        <v>1.004400821146334</v>
+        <v>1.095080174008727</v>
       </c>
       <c r="E11">
-        <v>0.998810231350628</v>
+        <v>0.9155725405961338</v>
       </c>
       <c r="F11">
-        <v>1.004327881850952</v>
+        <v>1.044033744311262</v>
       </c>
       <c r="G11">
-        <v>1.003698294341228</v>
+        <v>1.044033744311262</v>
       </c>
       <c r="H11">
-        <v>0.9984249087532314</v>
+        <v>0.8434491542108119</v>
       </c>
       <c r="I11">
-        <v>0.9991909099803656</v>
+        <v>0.8434491542108119</v>
       </c>
       <c r="J11">
-        <v>1.004400821146334</v>
+        <v>1.037809204995599</v>
       </c>
       <c r="K11">
-        <v>1.004327881850952</v>
+        <v>1.044033744311262</v>
       </c>
       <c r="L11">
-        <v>0.998810231350628</v>
+        <v>1.037809204995599</v>
       </c>
       <c r="M11">
-        <v>1.001605526248481</v>
+        <v>0.9406291796032054</v>
       </c>
       <c r="N11">
-        <v>1.001605526248481</v>
+        <v>0.9406291796032054</v>
       </c>
       <c r="O11">
-        <v>1.000545320416731</v>
+        <v>0.9322769666008481</v>
       </c>
       <c r="P11">
-        <v>1.002512978115971</v>
+        <v>0.9750973678392242</v>
       </c>
       <c r="Q11">
-        <v>1.002512978115971</v>
+        <v>0.9750973678392242</v>
       </c>
       <c r="R11">
-        <v>1.002966704049716</v>
+        <v>0.9923314619572334</v>
       </c>
       <c r="S11">
-        <v>1.002966704049716</v>
+        <v>0.9923314619572334</v>
       </c>
       <c r="T11">
-        <v>1.00147550790379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9957298822383701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.226152087430778</v>
+        <v>0.9797735730315781</v>
       </c>
       <c r="D12">
-        <v>0.8135648193026978</v>
+        <v>1.134844881621056</v>
       </c>
       <c r="E12">
-        <v>0.9195313905494017</v>
+        <v>1.016612528294735</v>
       </c>
       <c r="F12">
-        <v>1.226152087430778</v>
+        <v>0.868279403494737</v>
       </c>
       <c r="G12">
-        <v>0.6076480114475264</v>
+        <v>0.868279403494737</v>
       </c>
       <c r="H12">
-        <v>1.042499214400601</v>
+        <v>1.139126178242105</v>
       </c>
       <c r="I12">
-        <v>1.010562656342278</v>
+        <v>1.139126178242105</v>
       </c>
       <c r="J12">
-        <v>0.8135648193026978</v>
+        <v>1.033684357694739</v>
       </c>
       <c r="K12">
-        <v>1.226152087430778</v>
+        <v>0.868279403494737</v>
       </c>
       <c r="L12">
-        <v>0.9195313905494017</v>
+        <v>1.033684357694739</v>
       </c>
       <c r="M12">
-        <v>0.8665481049260497</v>
+        <v>1.086405267968422</v>
       </c>
       <c r="N12">
-        <v>0.8665481049260497</v>
+        <v>1.086405267968422</v>
       </c>
       <c r="O12">
-        <v>0.9251984747509002</v>
+        <v>1.063141021410526</v>
       </c>
       <c r="P12">
-        <v>0.9864160990942924</v>
+        <v>1.013696646477194</v>
       </c>
       <c r="Q12">
-        <v>0.9864160990942925</v>
+        <v>1.013696646477194</v>
       </c>
       <c r="R12">
-        <v>1.046350096178414</v>
+        <v>0.9773423357315796</v>
       </c>
       <c r="S12">
-        <v>1.046350096178414</v>
+        <v>0.9773423357315796</v>
       </c>
       <c r="T12">
-        <v>0.9366596965788805</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.028720153729825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9259020730545915</v>
+        <v>1.005967438500199</v>
       </c>
       <c r="D13">
-        <v>1.196228588164551</v>
+        <v>1.008690389885227</v>
       </c>
       <c r="E13">
-        <v>0.9980379874609863</v>
+        <v>0.9848299741513878</v>
       </c>
       <c r="F13">
-        <v>0.9259020730545915</v>
+        <v>1.022711986353048</v>
       </c>
       <c r="G13">
-        <v>1.146773738040237</v>
+        <v>1.022711986353048</v>
       </c>
       <c r="H13">
-        <v>1.001305353144287</v>
+        <v>0.9761227336360272</v>
       </c>
       <c r="I13">
-        <v>0.9769692938969801</v>
+        <v>0.9761227336360272</v>
       </c>
       <c r="J13">
-        <v>1.196228588164551</v>
+        <v>0.9980795551939257</v>
       </c>
       <c r="K13">
-        <v>0.9259020730545915</v>
+        <v>1.022711986353048</v>
       </c>
       <c r="L13">
-        <v>0.9980379874609863</v>
+        <v>0.9980795551939257</v>
       </c>
       <c r="M13">
-        <v>1.097133287812768</v>
+        <v>0.9871011444149764</v>
       </c>
       <c r="N13">
-        <v>1.097133287812768</v>
+        <v>0.9871011444149764</v>
       </c>
       <c r="O13">
-        <v>1.065190642923275</v>
+        <v>0.9863440876604469</v>
       </c>
       <c r="P13">
-        <v>1.04005621622671</v>
+        <v>0.9989714250610003</v>
       </c>
       <c r="Q13">
-        <v>1.04005621622671</v>
+        <v>0.9989714250610003</v>
       </c>
       <c r="R13">
-        <v>1.01151768043368</v>
+        <v>1.004906565384012</v>
       </c>
       <c r="S13">
-        <v>1.01151768043368</v>
+        <v>1.004906565384012</v>
       </c>
       <c r="T13">
-        <v>1.040869505626939</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9994003462866359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7594890053520396</v>
+        <v>0.8725643200000008</v>
       </c>
       <c r="D14">
-        <v>1.440559545107162</v>
+        <v>1.770108699999998</v>
       </c>
       <c r="E14">
-        <v>0.9928443871418343</v>
+        <v>1.097047600000001</v>
       </c>
       <c r="F14">
-        <v>0.7594890053520396</v>
+        <v>0.24511332</v>
       </c>
       <c r="G14">
-        <v>1.166244549060898</v>
+        <v>0.24511332</v>
       </c>
       <c r="H14">
-        <v>1.101895647005625</v>
+        <v>1.8669278</v>
       </c>
       <c r="I14">
-        <v>0.9279295441835341</v>
+        <v>1.8669278</v>
       </c>
       <c r="J14">
-        <v>1.440559545107162</v>
+        <v>1.200521499999999</v>
       </c>
       <c r="K14">
-        <v>0.7594890053520396</v>
+        <v>0.24511332</v>
       </c>
       <c r="L14">
-        <v>0.9928443871418343</v>
+        <v>1.200521499999999</v>
       </c>
       <c r="M14">
-        <v>1.216701966124498</v>
+        <v>1.533724649999999</v>
       </c>
       <c r="N14">
-        <v>1.216701966124498</v>
+        <v>1.533724649999999</v>
       </c>
       <c r="O14">
-        <v>1.178433193084874</v>
+        <v>1.388165633333333</v>
       </c>
       <c r="P14">
-        <v>1.064297645867012</v>
+        <v>1.10418754</v>
       </c>
       <c r="Q14">
-        <v>1.064297645867012</v>
+        <v>1.10418754</v>
       </c>
       <c r="R14">
-        <v>0.988095485738269</v>
+        <v>0.8894189849999997</v>
       </c>
       <c r="S14">
-        <v>0.988095485738269</v>
+        <v>0.8894189849999997</v>
       </c>
       <c r="T14">
-        <v>1.064827112975182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.17538054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.018211072495288</v>
+        <v>1.134</v>
       </c>
       <c r="D15">
-        <v>0.8597309207966093</v>
+        <v>0.21380688</v>
       </c>
       <c r="E15">
-        <v>0.9981067985513478</v>
+        <v>0.39134565</v>
       </c>
       <c r="F15">
-        <v>1.018211072495288</v>
+        <v>3.4428622</v>
       </c>
       <c r="G15">
-        <v>0.8368033757414323</v>
+        <v>3.4428622</v>
       </c>
       <c r="H15">
-        <v>1.040837308069024</v>
+        <v>0.023300756</v>
       </c>
       <c r="I15">
-        <v>1.003399005809783</v>
+        <v>0.023300756</v>
       </c>
       <c r="J15">
-        <v>0.8597309207966093</v>
+        <v>0.42160412</v>
       </c>
       <c r="K15">
-        <v>1.018211072495288</v>
+        <v>3.4428622</v>
       </c>
       <c r="L15">
-        <v>0.9981067985513478</v>
+        <v>0.42160412</v>
       </c>
       <c r="M15">
-        <v>0.9289188596739786</v>
+        <v>0.222452438</v>
       </c>
       <c r="N15">
-        <v>0.9289188596739786</v>
+        <v>0.222452438</v>
       </c>
       <c r="O15">
-        <v>0.9662250091389938</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P15">
-        <v>0.958682930614415</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q15">
-        <v>0.9586829306144149</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R15">
-        <v>0.9735649660846331</v>
+        <v>1.832657319</v>
       </c>
       <c r="S15">
-        <v>0.9735649660846331</v>
+        <v>1.832657319</v>
       </c>
       <c r="T15">
-        <v>0.9595147469105806</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9378199343333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9963262249797311</v>
+        <v>1.2491109</v>
       </c>
       <c r="D16">
-        <v>1.000918552906954</v>
+        <v>2.7689596</v>
       </c>
       <c r="E16">
-        <v>1.001473472435609</v>
+        <v>0.20651447</v>
       </c>
       <c r="F16">
-        <v>0.9963262249797311</v>
+        <v>1.0822396</v>
       </c>
       <c r="G16">
-        <v>1.00304405912742</v>
+        <v>1.0822396</v>
       </c>
       <c r="H16">
-        <v>1.000135616856035</v>
+        <v>0.032036222</v>
       </c>
       <c r="I16">
-        <v>0.9999309407965054</v>
+        <v>0.032036222</v>
       </c>
       <c r="J16">
-        <v>1.000918552906954</v>
+        <v>1.3724463</v>
       </c>
       <c r="K16">
-        <v>0.9963262249797311</v>
+        <v>1.0822396</v>
       </c>
       <c r="L16">
-        <v>1.001473472435609</v>
+        <v>1.3724463</v>
       </c>
       <c r="M16">
-        <v>1.001196012671282</v>
+        <v>0.7022412609999999</v>
       </c>
       <c r="N16">
-        <v>1.001196012671282</v>
+        <v>0.7022412609999999</v>
       </c>
       <c r="O16">
-        <v>1.000842547399533</v>
+        <v>0.5369989973333333</v>
       </c>
       <c r="P16">
-        <v>0.9995727501074317</v>
+        <v>0.8289073739999999</v>
       </c>
       <c r="Q16">
-        <v>0.9995727501074315</v>
+        <v>0.828907374</v>
       </c>
       <c r="R16">
-        <v>0.9987611188255064</v>
+        <v>0.8922404305</v>
       </c>
       <c r="S16">
-        <v>0.9987611188255064</v>
+        <v>0.8922404305</v>
       </c>
       <c r="T16">
-        <v>1.000304811183709</v>
+        <v>1.118551182</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.004022653101704</v>
+        <v>1.0720652</v>
       </c>
       <c r="D17">
-        <v>0.9997593175139168</v>
+        <v>1.8223291</v>
       </c>
       <c r="E17">
-        <v>0.9982742615212041</v>
+        <v>0.66043898</v>
       </c>
       <c r="F17">
-        <v>1.004022653101704</v>
+        <v>1.0505035</v>
       </c>
       <c r="G17">
-        <v>0.9968942296842329</v>
+        <v>1.0505035</v>
       </c>
       <c r="H17">
-        <v>0.9999635757726623</v>
+        <v>0.8782308599999999</v>
       </c>
       <c r="I17">
-        <v>0.9998899103356096</v>
+        <v>0.8782308599999999</v>
       </c>
       <c r="J17">
-        <v>0.9997593175139168</v>
+        <v>1.1172741</v>
       </c>
       <c r="K17">
-        <v>1.004022653101704</v>
+        <v>1.0505035</v>
       </c>
       <c r="L17">
-        <v>0.9982742615212041</v>
+        <v>1.1172741</v>
       </c>
       <c r="M17">
-        <v>0.9990167895175605</v>
+        <v>0.9977524799999999</v>
       </c>
       <c r="N17">
-        <v>0.9990167895175605</v>
+        <v>0.9977524799999999</v>
       </c>
       <c r="O17">
-        <v>0.9993323849359278</v>
+        <v>0.8853146466666666</v>
       </c>
       <c r="P17">
-        <v>1.000685410712275</v>
+        <v>1.015336153333333</v>
       </c>
       <c r="Q17">
-        <v>1.000685410712275</v>
+        <v>1.015336153333333</v>
       </c>
       <c r="R17">
-        <v>1.001519721309632</v>
+        <v>1.02412799</v>
       </c>
       <c r="S17">
-        <v>1.001519721309632</v>
+        <v>1.02412799</v>
       </c>
       <c r="T17">
-        <v>0.9998006579882217</v>
+        <v>1.10014029</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9948425901970857</v>
+        <v>0.9883621123287667</v>
       </c>
       <c r="D18">
-        <v>1.000731750527894</v>
+        <v>0.6863503221917808</v>
       </c>
       <c r="E18">
-        <v>1.002561852172989</v>
+        <v>1.024913314657534</v>
       </c>
       <c r="F18">
-        <v>0.9948425901970857</v>
+        <v>1.284299527671233</v>
       </c>
       <c r="G18">
-        <v>1.004031061709294</v>
+        <v>1.284299527671233</v>
       </c>
       <c r="H18">
-        <v>1.000651426531763</v>
+        <v>0.9465206117260273</v>
       </c>
       <c r="I18">
-        <v>0.9993843958623611</v>
+        <v>0.9465206117260273</v>
       </c>
       <c r="J18">
-        <v>1.000731750527894</v>
+        <v>0.8885736301369862</v>
       </c>
       <c r="K18">
-        <v>0.9948425901970857</v>
+        <v>1.284299527671233</v>
       </c>
       <c r="L18">
-        <v>1.002561852172989</v>
+        <v>0.8885736301369862</v>
       </c>
       <c r="M18">
-        <v>1.001646801350442</v>
+        <v>0.9175471209315067</v>
       </c>
       <c r="N18">
-        <v>1.001646801350442</v>
+        <v>0.9175471209315067</v>
       </c>
       <c r="O18">
-        <v>1.001315009744215</v>
+        <v>0.9533358521735159</v>
       </c>
       <c r="P18">
-        <v>0.9993787309659896</v>
+        <v>1.039797923178082</v>
       </c>
       <c r="Q18">
-        <v>0.9993787309659896</v>
+        <v>1.039797923178082</v>
       </c>
       <c r="R18">
-        <v>0.9982446957737636</v>
+        <v>1.10092332430137</v>
       </c>
       <c r="S18">
-        <v>0.9982446957737636</v>
+        <v>1.10092332430137</v>
       </c>
       <c r="T18">
-        <v>1.000367179500231</v>
+        <v>0.9698365864520548</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9728048767013401</v>
+        <v>1.005530841052632</v>
       </c>
       <c r="D19">
-        <v>1.003336163301229</v>
+        <v>1.853414268421052</v>
       </c>
       <c r="E19">
-        <v>1.011040282410761</v>
+        <v>0.8018328494736843</v>
       </c>
       <c r="F19">
-        <v>0.9728048767013401</v>
+        <v>0.7597024536842105</v>
       </c>
       <c r="G19">
-        <v>1.014846105841701</v>
+        <v>0.7597024536842105</v>
       </c>
       <c r="H19">
-        <v>1.002547176188888</v>
+        <v>1.210274136421053</v>
       </c>
       <c r="I19">
-        <v>0.9999566947849777</v>
+        <v>1.210274136421053</v>
       </c>
       <c r="J19">
-        <v>1.003336163301229</v>
+        <v>1.14886451</v>
       </c>
       <c r="K19">
-        <v>0.9728048767013401</v>
+        <v>0.7597024536842105</v>
       </c>
       <c r="L19">
-        <v>1.011040282410761</v>
+        <v>1.14886451</v>
       </c>
       <c r="M19">
-        <v>1.007188222855995</v>
+        <v>1.179569323210526</v>
       </c>
       <c r="N19">
-        <v>1.007188222855995</v>
+        <v>1.179569323210526</v>
       </c>
       <c r="O19">
-        <v>1.005641207300292</v>
+        <v>1.053657165298246</v>
       </c>
       <c r="P19">
-        <v>0.9957271074711102</v>
+        <v>1.039613700035088</v>
       </c>
       <c r="Q19">
-        <v>0.9957271074711102</v>
+        <v>1.039613700035088</v>
       </c>
       <c r="R19">
-        <v>0.9899965497786676</v>
+        <v>0.9696358884473684</v>
       </c>
       <c r="S19">
-        <v>0.9899965497786676</v>
+        <v>0.9696358884473684</v>
       </c>
       <c r="T19">
-        <v>1.000755216538149</v>
+        <v>1.129936509842105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.138605148421053</v>
+      </c>
+      <c r="D20">
+        <v>1.192750551052632</v>
+      </c>
+      <c r="E20">
+        <v>0.6701385515789475</v>
+      </c>
+      <c r="F20">
+        <v>1.378430999473684</v>
+      </c>
+      <c r="G20">
+        <v>1.378430999473684</v>
+      </c>
+      <c r="H20">
+        <v>0.4639429711578947</v>
+      </c>
+      <c r="I20">
+        <v>0.4639429711578947</v>
+      </c>
+      <c r="J20">
+        <v>1.060011593157895</v>
+      </c>
+      <c r="K20">
+        <v>1.378430999473684</v>
+      </c>
+      <c r="L20">
+        <v>1.060011593157895</v>
+      </c>
+      <c r="M20">
+        <v>0.7619772821578947</v>
+      </c>
+      <c r="N20">
+        <v>0.7619772821578947</v>
+      </c>
+      <c r="O20">
+        <v>0.7313643719649123</v>
+      </c>
+      <c r="P20">
+        <v>0.9674618545964911</v>
+      </c>
+      <c r="Q20">
+        <v>0.9674618545964911</v>
+      </c>
+      <c r="R20">
+        <v>1.070204140815789</v>
+      </c>
+      <c r="S20">
+        <v>1.070204140815789</v>
+      </c>
+      <c r="T20">
+        <v>0.9839799691403509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9279295441835341</v>
+      </c>
+      <c r="D21">
+        <v>1.166244549060898</v>
+      </c>
+      <c r="E21">
+        <v>1.101895647005625</v>
+      </c>
+      <c r="F21">
+        <v>0.7594890053520396</v>
+      </c>
+      <c r="G21">
+        <v>0.7594890053520396</v>
+      </c>
+      <c r="H21">
+        <v>1.440559545107162</v>
+      </c>
+      <c r="I21">
+        <v>1.440559545107162</v>
+      </c>
+      <c r="J21">
+        <v>0.992844387141834</v>
+      </c>
+      <c r="K21">
+        <v>0.7594890053520396</v>
+      </c>
+      <c r="L21">
+        <v>0.992844387141834</v>
+      </c>
+      <c r="M21">
+        <v>1.216701966124498</v>
+      </c>
+      <c r="N21">
+        <v>1.216701966124498</v>
+      </c>
+      <c r="O21">
+        <v>1.178433193084874</v>
+      </c>
+      <c r="P21">
+        <v>1.064297645867012</v>
+      </c>
+      <c r="Q21">
+        <v>1.064297645867012</v>
+      </c>
+      <c r="R21">
+        <v>0.9880954857382689</v>
+      </c>
+      <c r="S21">
+        <v>0.9880954857382689</v>
+      </c>
+      <c r="T21">
+        <v>1.064827112975182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.003399005809783</v>
+      </c>
+      <c r="D22">
+        <v>0.8368033757414323</v>
+      </c>
+      <c r="E22">
+        <v>1.040837308069024</v>
+      </c>
+      <c r="F22">
+        <v>1.018211072495288</v>
+      </c>
+      <c r="G22">
+        <v>1.018211072495288</v>
+      </c>
+      <c r="H22">
+        <v>0.8597309207966093</v>
+      </c>
+      <c r="I22">
+        <v>0.8597309207966093</v>
+      </c>
+      <c r="J22">
+        <v>0.9981067985513478</v>
+      </c>
+      <c r="K22">
+        <v>1.018211072495288</v>
+      </c>
+      <c r="L22">
+        <v>0.9981067985513478</v>
+      </c>
+      <c r="M22">
+        <v>0.9289188596739786</v>
+      </c>
+      <c r="N22">
+        <v>0.9289188596739786</v>
+      </c>
+      <c r="O22">
+        <v>0.9662250091389938</v>
+      </c>
+      <c r="P22">
+        <v>0.958682930614415</v>
+      </c>
+      <c r="Q22">
+        <v>0.9586829306144149</v>
+      </c>
+      <c r="R22">
+        <v>0.9735649660846331</v>
+      </c>
+      <c r="S22">
+        <v>0.9735649660846331</v>
+      </c>
+      <c r="T22">
+        <v>0.9595147469105806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.010562656342278</v>
+      </c>
+      <c r="D23">
+        <v>0.6076480114475263</v>
+      </c>
+      <c r="E23">
+        <v>1.042499214400601</v>
+      </c>
+      <c r="F23">
+        <v>1.226152087430778</v>
+      </c>
+      <c r="G23">
+        <v>1.226152087430778</v>
+      </c>
+      <c r="H23">
+        <v>0.8135648193026975</v>
+      </c>
+      <c r="I23">
+        <v>0.8135648193026975</v>
+      </c>
+      <c r="J23">
+        <v>0.9195313905494017</v>
+      </c>
+      <c r="K23">
+        <v>1.226152087430778</v>
+      </c>
+      <c r="L23">
+        <v>0.9195313905494017</v>
+      </c>
+      <c r="M23">
+        <v>0.8665481049260496</v>
+      </c>
+      <c r="N23">
+        <v>0.8665481049260496</v>
+      </c>
+      <c r="O23">
+        <v>0.9251984747509002</v>
+      </c>
+      <c r="P23">
+        <v>0.9864160990942925</v>
+      </c>
+      <c r="Q23">
+        <v>0.9864160990942925</v>
+      </c>
+      <c r="R23">
+        <v>1.046350096178414</v>
+      </c>
+      <c r="S23">
+        <v>1.046350096178414</v>
+      </c>
+      <c r="T23">
+        <v>0.9366596965788805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9769692938969803</v>
+      </c>
+      <c r="D24">
+        <v>1.146773738040237</v>
+      </c>
+      <c r="E24">
+        <v>1.001305353144287</v>
+      </c>
+      <c r="F24">
+        <v>0.9259020730545918</v>
+      </c>
+      <c r="G24">
+        <v>0.9259020730545918</v>
+      </c>
+      <c r="H24">
+        <v>1.19622858816455</v>
+      </c>
+      <c r="I24">
+        <v>1.19622858816455</v>
+      </c>
+      <c r="J24">
+        <v>0.9980379874609863</v>
+      </c>
+      <c r="K24">
+        <v>0.9259020730545918</v>
+      </c>
+      <c r="L24">
+        <v>0.9980379874609863</v>
+      </c>
+      <c r="M24">
+        <v>1.097133287812768</v>
+      </c>
+      <c r="N24">
+        <v>1.097133287812768</v>
+      </c>
+      <c r="O24">
+        <v>1.065190642923275</v>
+      </c>
+      <c r="P24">
+        <v>1.04005621622671</v>
+      </c>
+      <c r="Q24">
+        <v>1.04005621622671</v>
+      </c>
+      <c r="R24">
+        <v>1.01151768043368</v>
+      </c>
+      <c r="S24">
+        <v>1.01151768043368</v>
+      </c>
+      <c r="T24">
+        <v>1.040869505626939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.137013518901693</v>
+      </c>
+      <c r="D25">
+        <v>0.876206697063997</v>
+      </c>
+      <c r="E25">
+        <v>0.7303100739457405</v>
+      </c>
+      <c r="F25">
+        <v>1.538037954437502</v>
+      </c>
+      <c r="G25">
+        <v>1.538037954437502</v>
+      </c>
+      <c r="H25">
+        <v>0.3456270970246729</v>
+      </c>
+      <c r="I25">
+        <v>0.3456270970246729</v>
+      </c>
+      <c r="J25">
+        <v>0.9671687472778617</v>
+      </c>
+      <c r="K25">
+        <v>1.538037954437502</v>
+      </c>
+      <c r="L25">
+        <v>0.9671687472778617</v>
+      </c>
+      <c r="M25">
+        <v>0.6563979221512672</v>
+      </c>
+      <c r="N25">
+        <v>0.6563979221512672</v>
+      </c>
+      <c r="O25">
+        <v>0.6810353060827583</v>
+      </c>
+      <c r="P25">
+        <v>0.9502779329133456</v>
+      </c>
+      <c r="Q25">
+        <v>0.9502779329133456</v>
+      </c>
+      <c r="R25">
+        <v>1.097217938294385</v>
+      </c>
+      <c r="S25">
+        <v>1.097217938294385</v>
+      </c>
+      <c r="T25">
+        <v>0.9323940147752446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.022788678436913</v>
+      </c>
+      <c r="D26">
+        <v>1.252766798361946</v>
+      </c>
+      <c r="E26">
+        <v>0.9488432388393743</v>
+      </c>
+      <c r="F26">
+        <v>0.8327873379431808</v>
+      </c>
+      <c r="G26">
+        <v>0.8327873379431808</v>
+      </c>
+      <c r="H26">
+        <v>0.9184771135653895</v>
+      </c>
+      <c r="I26">
+        <v>0.9184771135653895</v>
+      </c>
+      <c r="J26">
+        <v>1.103828430616287</v>
+      </c>
+      <c r="K26">
+        <v>0.8327873379431808</v>
+      </c>
+      <c r="L26">
+        <v>1.103828430616287</v>
+      </c>
+      <c r="M26">
+        <v>1.011152772090838</v>
+      </c>
+      <c r="N26">
+        <v>1.011152772090838</v>
+      </c>
+      <c r="O26">
+        <v>0.9903829276736836</v>
+      </c>
+      <c r="P26">
+        <v>0.9516976273749526</v>
+      </c>
+      <c r="Q26">
+        <v>0.9516976273749526</v>
+      </c>
+      <c r="R26">
+        <v>0.9219700550170096</v>
+      </c>
+      <c r="S26">
+        <v>0.9219700550170096</v>
+      </c>
+      <c r="T26">
+        <v>1.013248599627182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9925017200491179</v>
+      </c>
+      <c r="D27">
+        <v>0.9857577545732567</v>
+      </c>
+      <c r="E27">
+        <v>0.9886782788794876</v>
+      </c>
+      <c r="F27">
+        <v>1.064187494965505</v>
+      </c>
+      <c r="G27">
+        <v>1.064187494965505</v>
+      </c>
+      <c r="H27">
+        <v>1.111936335554146</v>
+      </c>
+      <c r="I27">
+        <v>1.111936335554146</v>
+      </c>
+      <c r="J27">
+        <v>0.9618770025335127</v>
+      </c>
+      <c r="K27">
+        <v>1.064187494965505</v>
+      </c>
+      <c r="L27">
+        <v>0.9618770025335127</v>
+      </c>
+      <c r="M27">
+        <v>1.036906669043829</v>
+      </c>
+      <c r="N27">
+        <v>1.036906669043829</v>
+      </c>
+      <c r="O27">
+        <v>1.020830538989049</v>
+      </c>
+      <c r="P27">
+        <v>1.046000277684388</v>
+      </c>
+      <c r="Q27">
+        <v>1.046000277684388</v>
+      </c>
+      <c r="R27">
+        <v>1.050547082004667</v>
+      </c>
+      <c r="S27">
+        <v>1.050547082004667</v>
+      </c>
+      <c r="T27">
+        <v>1.017489764425838</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.030448369895988</v>
+      </c>
+      <c r="D28">
+        <v>1.04109870623943</v>
+      </c>
+      <c r="E28">
+        <v>0.9450875845562311</v>
+      </c>
+      <c r="F28">
+        <v>1.006254783630723</v>
+      </c>
+      <c r="G28">
+        <v>1.006254783630723</v>
+      </c>
+      <c r="H28">
+        <v>0.908474684501443</v>
+      </c>
+      <c r="I28">
+        <v>0.908474684501443</v>
+      </c>
+      <c r="J28">
+        <v>1.041072458202626</v>
+      </c>
+      <c r="K28">
+        <v>1.006254783630723</v>
+      </c>
+      <c r="L28">
+        <v>1.041072458202626</v>
+      </c>
+      <c r="M28">
+        <v>0.9747735713520345</v>
+      </c>
+      <c r="N28">
+        <v>0.9747735713520345</v>
+      </c>
+      <c r="O28">
+        <v>0.9648782424201</v>
+      </c>
+      <c r="P28">
+        <v>0.9852673087782641</v>
+      </c>
+      <c r="Q28">
+        <v>0.9852673087782641</v>
+      </c>
+      <c r="R28">
+        <v>0.9905141774913788</v>
+      </c>
+      <c r="S28">
+        <v>0.9905141774913788</v>
+      </c>
+      <c r="T28">
+        <v>0.99540609783774</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.018597256835603</v>
+      </c>
+      <c r="D29">
+        <v>1.05515999306867</v>
+      </c>
+      <c r="E29">
+        <v>0.9103740932803251</v>
+      </c>
+      <c r="F29">
+        <v>1.185448799620363</v>
+      </c>
+      <c r="G29">
+        <v>1.185448799620363</v>
+      </c>
+      <c r="H29">
+        <v>0.9887668686133244</v>
+      </c>
+      <c r="I29">
+        <v>0.9887668686133244</v>
+      </c>
+      <c r="J29">
+        <v>0.9550628296041742</v>
+      </c>
+      <c r="K29">
+        <v>1.185448799620363</v>
+      </c>
+      <c r="L29">
+        <v>0.9550628296041742</v>
+      </c>
+      <c r="M29">
+        <v>0.9719148491087493</v>
+      </c>
+      <c r="N29">
+        <v>0.9719148491087493</v>
+      </c>
+      <c r="O29">
+        <v>0.9514012638326079</v>
+      </c>
+      <c r="P29">
+        <v>1.043092832612621</v>
+      </c>
+      <c r="Q29">
+        <v>1.043092832612621</v>
+      </c>
+      <c r="R29">
+        <v>1.078681824364556</v>
+      </c>
+      <c r="S29">
+        <v>1.078681824364556</v>
+      </c>
+      <c r="T29">
+        <v>1.01890164017041</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW15.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.041711041305126</v>
+        <v>0.9846718918593863</v>
       </c>
       <c r="D4">
-        <v>1.211709231932758</v>
+        <v>1.070414079790856</v>
       </c>
       <c r="E4">
-        <v>0.8888890447121203</v>
+        <v>1.019669966659893</v>
       </c>
       <c r="F4">
-        <v>1.010401068960471</v>
+        <v>0.9112654441258361</v>
       </c>
       <c r="G4">
-        <v>1.010401068960471</v>
+        <v>0.9112654441258361</v>
       </c>
       <c r="H4">
-        <v>0.8511985933908125</v>
+        <v>1.096187508036424</v>
       </c>
       <c r="I4">
-        <v>0.8511985933908125</v>
+        <v>1.096187508036424</v>
       </c>
       <c r="J4">
-        <v>1.057405428091932</v>
+        <v>1.01828576209981</v>
       </c>
       <c r="K4">
-        <v>1.010401068960471</v>
+        <v>0.9112654441258361</v>
       </c>
       <c r="L4">
-        <v>1.057405428091932</v>
+        <v>1.01828576209981</v>
       </c>
       <c r="M4">
-        <v>0.9543020107413724</v>
+        <v>1.057236635068117</v>
       </c>
       <c r="N4">
-        <v>0.9543020107413724</v>
+        <v>1.057236635068117</v>
       </c>
       <c r="O4">
-        <v>0.9324976887316216</v>
+        <v>1.044714412265375</v>
       </c>
       <c r="P4">
-        <v>0.9730016968144053</v>
+        <v>1.00857957142069</v>
       </c>
       <c r="Q4">
-        <v>0.9730016968144053</v>
+        <v>1.00857957142069</v>
       </c>
       <c r="R4">
-        <v>0.9823515398509217</v>
+        <v>0.9842510395969766</v>
       </c>
       <c r="S4">
-        <v>0.9823515398509217</v>
+        <v>0.9842510395969766</v>
       </c>
       <c r="T4">
-        <v>1.010219068065537</v>
+        <v>1.016749108762034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9847955213112388</v>
+        <v>1.15967593165236</v>
       </c>
       <c r="D5">
-        <v>1.07733514477666</v>
+        <v>1.174750890627671</v>
       </c>
       <c r="E5">
-        <v>1.015052264697405</v>
+        <v>0.6422291735971748</v>
       </c>
       <c r="F5">
-        <v>0.9172441617363132</v>
+        <v>1.41602622811095</v>
       </c>
       <c r="G5">
-        <v>0.9172441617363132</v>
+        <v>1.41602622811095</v>
       </c>
       <c r="H5">
-        <v>1.098549936276654</v>
+        <v>0.3655711095286229</v>
       </c>
       <c r="I5">
-        <v>1.098549936276654</v>
+        <v>0.3655711095286229</v>
       </c>
       <c r="J5">
-        <v>1.018573960266572</v>
+        <v>1.065859246414155</v>
       </c>
       <c r="K5">
-        <v>0.9172441617363132</v>
+        <v>1.41602622811095</v>
       </c>
       <c r="L5">
-        <v>1.018573960266572</v>
+        <v>1.065859246414155</v>
       </c>
       <c r="M5">
-        <v>1.058561948271613</v>
+        <v>0.7157151779713889</v>
       </c>
       <c r="N5">
-        <v>1.058561948271613</v>
+        <v>0.7157151779713889</v>
       </c>
       <c r="O5">
-        <v>1.044058720413544</v>
+        <v>0.6912198431799842</v>
       </c>
       <c r="P5">
-        <v>1.011456019426513</v>
+        <v>0.9491521946845761</v>
       </c>
       <c r="Q5">
-        <v>1.011456019426513</v>
+        <v>0.9491521946845761</v>
       </c>
       <c r="R5">
-        <v>0.9879030550039634</v>
+        <v>1.06587070304117</v>
       </c>
       <c r="S5">
-        <v>0.9879030550039634</v>
+        <v>1.06587070304117</v>
       </c>
       <c r="T5">
-        <v>1.018591831510807</v>
+        <v>0.9706854299884892</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9291369369976259</v>
+        <v>1.041711041305126</v>
       </c>
       <c r="D6">
-        <v>1.418330462172698</v>
+        <v>1.211709231932758</v>
       </c>
       <c r="E6">
-        <v>1.057137663504084</v>
+        <v>0.8888890447121203</v>
       </c>
       <c r="F6">
-        <v>0.58272788125859</v>
+        <v>1.010401068960471</v>
       </c>
       <c r="G6">
-        <v>0.58272788125859</v>
+        <v>1.010401068960471</v>
       </c>
       <c r="H6">
-        <v>1.478359657136803</v>
+        <v>0.8511985933908125</v>
       </c>
       <c r="I6">
-        <v>1.478359657136803</v>
+        <v>0.8511985933908125</v>
       </c>
       <c r="J6">
-        <v>1.108357553965204</v>
+        <v>1.057405428091932</v>
       </c>
       <c r="K6">
-        <v>0.58272788125859</v>
+        <v>1.010401068960471</v>
       </c>
       <c r="L6">
-        <v>1.108357553965204</v>
+        <v>1.057405428091932</v>
       </c>
       <c r="M6">
-        <v>1.293358605551003</v>
+        <v>0.9543020107413724</v>
       </c>
       <c r="N6">
-        <v>1.293358605551003</v>
+        <v>0.9543020107413724</v>
       </c>
       <c r="O6">
-        <v>1.214618291535364</v>
+        <v>0.9324976887316216</v>
       </c>
       <c r="P6">
-        <v>1.056481697453532</v>
+        <v>0.9730016968144053</v>
       </c>
       <c r="Q6">
-        <v>1.056481697453532</v>
+        <v>0.9730016968144053</v>
       </c>
       <c r="R6">
-        <v>0.9380432434047965</v>
+        <v>0.9823515398509217</v>
       </c>
       <c r="S6">
-        <v>0.9380432434047965</v>
+        <v>0.9823515398509217</v>
       </c>
       <c r="T6">
-        <v>1.095675025839167</v>
+        <v>1.010219068065537</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000076061940366</v>
+        <v>0.9847955213112388</v>
       </c>
       <c r="D7">
-        <v>0.9857662250145853</v>
+        <v>1.07733514477666</v>
       </c>
       <c r="E7">
-        <v>1.000183334274813</v>
+        <v>1.015052264697405</v>
       </c>
       <c r="F7">
-        <v>1.013895530320609</v>
+        <v>0.9172441617363132</v>
       </c>
       <c r="G7">
-        <v>1.013895530320609</v>
+        <v>0.9172441617363132</v>
       </c>
       <c r="H7">
-        <v>0.9956122433398245</v>
+        <v>1.098549936276654</v>
       </c>
       <c r="I7">
-        <v>0.9956122433398245</v>
+        <v>1.098549936276654</v>
       </c>
       <c r="J7">
-        <v>0.9950192942077858</v>
+        <v>1.018573960266572</v>
       </c>
       <c r="K7">
-        <v>1.013895530320609</v>
+        <v>0.9172441617363132</v>
       </c>
       <c r="L7">
-        <v>0.9950192942077858</v>
+        <v>1.018573960266572</v>
       </c>
       <c r="M7">
-        <v>0.9953157687738051</v>
+        <v>1.058561948271613</v>
       </c>
       <c r="N7">
-        <v>0.9953157687738051</v>
+        <v>1.058561948271613</v>
       </c>
       <c r="O7">
-        <v>0.9969382906074742</v>
+        <v>1.044058720413544</v>
       </c>
       <c r="P7">
-        <v>1.00150902262274</v>
+        <v>1.011456019426513</v>
       </c>
       <c r="Q7">
-        <v>1.00150902262274</v>
+        <v>1.011456019426513</v>
       </c>
       <c r="R7">
-        <v>1.004605649547207</v>
+        <v>0.9879030550039634</v>
       </c>
       <c r="S7">
-        <v>1.004605649547207</v>
+        <v>0.9879030550039634</v>
       </c>
       <c r="T7">
-        <v>0.9984254481829972</v>
+        <v>1.018591831510807</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998899103356096</v>
+        <v>0.9291369369976259</v>
       </c>
       <c r="D8">
-        <v>0.9968942296842329</v>
+        <v>1.418330462172698</v>
       </c>
       <c r="E8">
-        <v>0.9999635757726629</v>
+        <v>1.057137663504084</v>
       </c>
       <c r="F8">
-        <v>1.004022653101704</v>
+        <v>0.58272788125859</v>
       </c>
       <c r="G8">
-        <v>1.004022653101704</v>
+        <v>0.58272788125859</v>
       </c>
       <c r="H8">
-        <v>0.9997593175139168</v>
+        <v>1.478359657136803</v>
       </c>
       <c r="I8">
-        <v>0.9997593175139168</v>
+        <v>1.478359657136803</v>
       </c>
       <c r="J8">
-        <v>0.9982742615212041</v>
+        <v>1.108357553965204</v>
       </c>
       <c r="K8">
-        <v>1.004022653101704</v>
+        <v>0.58272788125859</v>
       </c>
       <c r="L8">
-        <v>0.9982742615212041</v>
+        <v>1.108357553965204</v>
       </c>
       <c r="M8">
-        <v>0.9990167895175605</v>
+        <v>1.293358605551003</v>
       </c>
       <c r="N8">
-        <v>0.9990167895175605</v>
+        <v>1.293358605551003</v>
       </c>
       <c r="O8">
-        <v>0.9993323849359279</v>
+        <v>1.214618291535364</v>
       </c>
       <c r="P8">
-        <v>1.000685410712275</v>
+        <v>1.056481697453532</v>
       </c>
       <c r="Q8">
-        <v>1.000685410712275</v>
+        <v>1.056481697453532</v>
       </c>
       <c r="R8">
-        <v>1.001519721309632</v>
+        <v>0.9380432434047965</v>
       </c>
       <c r="S8">
-        <v>1.001519721309632</v>
+        <v>0.9380432434047965</v>
       </c>
       <c r="T8">
-        <v>0.9998006579882217</v>
+        <v>1.095675025839167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9986395087887119</v>
+        <v>1.000076061940366</v>
       </c>
       <c r="D9">
-        <v>0.9761204295953141</v>
+        <v>0.9857662250145853</v>
       </c>
       <c r="E9">
-        <v>1.002724914057606</v>
+        <v>1.000183334274813</v>
       </c>
       <c r="F9">
-        <v>1.020327310461459</v>
+        <v>1.013895530320609</v>
       </c>
       <c r="G9">
-        <v>1.020327310461459</v>
+        <v>1.013895530320609</v>
       </c>
       <c r="H9">
-        <v>0.997589033456908</v>
+        <v>0.9956122433398245</v>
       </c>
       <c r="I9">
-        <v>0.997589033456908</v>
+        <v>0.9956122433398245</v>
       </c>
       <c r="J9">
-        <v>0.9916335107254579</v>
+        <v>0.9950192942077858</v>
       </c>
       <c r="K9">
-        <v>1.020327310461459</v>
+        <v>1.013895530320609</v>
       </c>
       <c r="L9">
-        <v>0.9916335107254579</v>
+        <v>0.9950192942077858</v>
       </c>
       <c r="M9">
-        <v>0.9946112720911829</v>
+        <v>0.9953157687738051</v>
       </c>
       <c r="N9">
-        <v>0.9946112720911829</v>
+        <v>0.9953157687738051</v>
       </c>
       <c r="O9">
-        <v>0.9973158194133239</v>
+        <v>0.9969382906074742</v>
       </c>
       <c r="P9">
-        <v>1.003183284881275</v>
+        <v>1.00150902262274</v>
       </c>
       <c r="Q9">
-        <v>1.003183284881275</v>
+        <v>1.00150902262274</v>
       </c>
       <c r="R9">
-        <v>1.007469291276321</v>
+        <v>1.004605649547207</v>
       </c>
       <c r="S9">
-        <v>1.007469291276321</v>
+        <v>1.004605649547207</v>
       </c>
       <c r="T9">
-        <v>0.9978391178475761</v>
+        <v>0.9984254481829972</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9272951428562918</v>
+        <v>0.9998899103356096</v>
       </c>
       <c r="D10">
-        <v>1.433197042878555</v>
+        <v>0.9968942296842329</v>
       </c>
       <c r="E10">
-        <v>1.057913229309711</v>
+        <v>0.9999635757726629</v>
       </c>
       <c r="F10">
-        <v>0.5707094790691642</v>
+        <v>1.004022653101704</v>
       </c>
       <c r="G10">
-        <v>0.5707094790691642</v>
+        <v>1.004022653101704</v>
       </c>
       <c r="H10">
-        <v>1.492205085168194</v>
+        <v>0.9997593175139168</v>
       </c>
       <c r="I10">
-        <v>1.492205085168194</v>
+        <v>0.9997593175139168</v>
       </c>
       <c r="J10">
-        <v>1.111374110853279</v>
+        <v>0.9982742615212041</v>
       </c>
       <c r="K10">
-        <v>0.5707094790691642</v>
+        <v>1.004022653101704</v>
       </c>
       <c r="L10">
-        <v>1.111374110853279</v>
+        <v>0.9982742615212041</v>
       </c>
       <c r="M10">
-        <v>1.301789598010736</v>
+        <v>0.9990167895175605</v>
       </c>
       <c r="N10">
-        <v>1.301789598010736</v>
+        <v>0.9990167895175605</v>
       </c>
       <c r="O10">
-        <v>1.220497475110395</v>
+        <v>0.9993323849359279</v>
       </c>
       <c r="P10">
-        <v>1.058096225030212</v>
+        <v>1.000685410712275</v>
       </c>
       <c r="Q10">
-        <v>1.058096225030212</v>
+        <v>1.000685410712275</v>
       </c>
       <c r="R10">
-        <v>0.9362495385399502</v>
+        <v>1.001519721309632</v>
       </c>
       <c r="S10">
-        <v>0.9362495385399502</v>
+        <v>1.001519721309632</v>
       </c>
       <c r="T10">
-        <v>1.098782348355866</v>
+        <v>0.9998006579882217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.038434475307687</v>
+        <v>0.9986395087887119</v>
       </c>
       <c r="D11">
-        <v>1.095080174008727</v>
+        <v>0.9761204295953141</v>
       </c>
       <c r="E11">
-        <v>0.9155725405961338</v>
+        <v>1.002724914057606</v>
       </c>
       <c r="F11">
-        <v>1.044033744311262</v>
+        <v>1.020327310461459</v>
       </c>
       <c r="G11">
-        <v>1.044033744311262</v>
+        <v>1.020327310461459</v>
       </c>
       <c r="H11">
-        <v>0.8434491542108119</v>
+        <v>0.997589033456908</v>
       </c>
       <c r="I11">
-        <v>0.8434491542108119</v>
+        <v>0.997589033456908</v>
       </c>
       <c r="J11">
-        <v>1.037809204995599</v>
+        <v>0.9916335107254579</v>
       </c>
       <c r="K11">
-        <v>1.044033744311262</v>
+        <v>1.020327310461459</v>
       </c>
       <c r="L11">
-        <v>1.037809204995599</v>
+        <v>0.9916335107254579</v>
       </c>
       <c r="M11">
-        <v>0.9406291796032054</v>
+        <v>0.9946112720911829</v>
       </c>
       <c r="N11">
-        <v>0.9406291796032054</v>
+        <v>0.9946112720911829</v>
       </c>
       <c r="O11">
-        <v>0.9322769666008481</v>
+        <v>0.9973158194133239</v>
       </c>
       <c r="P11">
-        <v>0.9750973678392242</v>
+        <v>1.003183284881275</v>
       </c>
       <c r="Q11">
-        <v>0.9750973678392242</v>
+        <v>1.003183284881275</v>
       </c>
       <c r="R11">
-        <v>0.9923314619572334</v>
+        <v>1.007469291276321</v>
       </c>
       <c r="S11">
-        <v>0.9923314619572334</v>
+        <v>1.007469291276321</v>
       </c>
       <c r="T11">
-        <v>0.9957298822383701</v>
+        <v>0.9978391178475761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9797735730315781</v>
+        <v>0.9272951428562918</v>
       </c>
       <c r="D12">
-        <v>1.134844881621056</v>
+        <v>1.433197042878555</v>
       </c>
       <c r="E12">
-        <v>1.016612528294735</v>
+        <v>1.057913229309711</v>
       </c>
       <c r="F12">
-        <v>0.868279403494737</v>
+        <v>0.5707094790691642</v>
       </c>
       <c r="G12">
-        <v>0.868279403494737</v>
+        <v>0.5707094790691642</v>
       </c>
       <c r="H12">
-        <v>1.139126178242105</v>
+        <v>1.492205085168194</v>
       </c>
       <c r="I12">
-        <v>1.139126178242105</v>
+        <v>1.492205085168194</v>
       </c>
       <c r="J12">
-        <v>1.033684357694739</v>
+        <v>1.111374110853279</v>
       </c>
       <c r="K12">
-        <v>0.868279403494737</v>
+        <v>0.5707094790691642</v>
       </c>
       <c r="L12">
-        <v>1.033684357694739</v>
+        <v>1.111374110853279</v>
       </c>
       <c r="M12">
-        <v>1.086405267968422</v>
+        <v>1.301789598010736</v>
       </c>
       <c r="N12">
-        <v>1.086405267968422</v>
+        <v>1.301789598010736</v>
       </c>
       <c r="O12">
-        <v>1.063141021410526</v>
+        <v>1.220497475110395</v>
       </c>
       <c r="P12">
-        <v>1.013696646477194</v>
+        <v>1.058096225030212</v>
       </c>
       <c r="Q12">
-        <v>1.013696646477194</v>
+        <v>1.058096225030212</v>
       </c>
       <c r="R12">
-        <v>0.9773423357315796</v>
+        <v>0.9362495385399502</v>
       </c>
       <c r="S12">
-        <v>0.9773423357315796</v>
+        <v>0.9362495385399502</v>
       </c>
       <c r="T12">
-        <v>1.028720153729825</v>
+        <v>1.098782348355866</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.005967438500199</v>
+        <v>1.038434475307687</v>
       </c>
       <c r="D13">
-        <v>1.008690389885227</v>
+        <v>1.095080174008727</v>
       </c>
       <c r="E13">
-        <v>0.9848299741513878</v>
+        <v>0.9155725405961338</v>
       </c>
       <c r="F13">
-        <v>1.022711986353048</v>
+        <v>1.044033744311262</v>
       </c>
       <c r="G13">
-        <v>1.022711986353048</v>
+        <v>1.044033744311262</v>
       </c>
       <c r="H13">
-        <v>0.9761227336360272</v>
+        <v>0.8434491542108119</v>
       </c>
       <c r="I13">
-        <v>0.9761227336360272</v>
+        <v>0.8434491542108119</v>
       </c>
       <c r="J13">
-        <v>0.9980795551939257</v>
+        <v>1.037809204995599</v>
       </c>
       <c r="K13">
-        <v>1.022711986353048</v>
+        <v>1.044033744311262</v>
       </c>
       <c r="L13">
-        <v>0.9980795551939257</v>
+        <v>1.037809204995599</v>
       </c>
       <c r="M13">
-        <v>0.9871011444149764</v>
+        <v>0.9406291796032054</v>
       </c>
       <c r="N13">
-        <v>0.9871011444149764</v>
+        <v>0.9406291796032054</v>
       </c>
       <c r="O13">
-        <v>0.9863440876604469</v>
+        <v>0.9322769666008481</v>
       </c>
       <c r="P13">
-        <v>0.9989714250610003</v>
+        <v>0.9750973678392242</v>
       </c>
       <c r="Q13">
-        <v>0.9989714250610003</v>
+        <v>0.9750973678392242</v>
       </c>
       <c r="R13">
-        <v>1.004906565384012</v>
+        <v>0.9923314619572334</v>
       </c>
       <c r="S13">
-        <v>1.004906565384012</v>
+        <v>0.9923314619572334</v>
       </c>
       <c r="T13">
-        <v>0.9994003462866359</v>
+        <v>0.9957298822383701</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8725643200000008</v>
+        <v>0.9797735730315781</v>
       </c>
       <c r="D14">
-        <v>1.770108699999998</v>
+        <v>1.134844881621056</v>
       </c>
       <c r="E14">
-        <v>1.097047600000001</v>
+        <v>1.016612528294735</v>
       </c>
       <c r="F14">
-        <v>0.24511332</v>
+        <v>0.868279403494737</v>
       </c>
       <c r="G14">
-        <v>0.24511332</v>
+        <v>0.868279403494737</v>
       </c>
       <c r="H14">
-        <v>1.8669278</v>
+        <v>1.139126178242105</v>
       </c>
       <c r="I14">
-        <v>1.8669278</v>
+        <v>1.139126178242105</v>
       </c>
       <c r="J14">
-        <v>1.200521499999999</v>
+        <v>1.033684357694739</v>
       </c>
       <c r="K14">
-        <v>0.24511332</v>
+        <v>0.868279403494737</v>
       </c>
       <c r="L14">
-        <v>1.200521499999999</v>
+        <v>1.033684357694739</v>
       </c>
       <c r="M14">
-        <v>1.533724649999999</v>
+        <v>1.086405267968422</v>
       </c>
       <c r="N14">
-        <v>1.533724649999999</v>
+        <v>1.086405267968422</v>
       </c>
       <c r="O14">
-        <v>1.388165633333333</v>
+        <v>1.063141021410526</v>
       </c>
       <c r="P14">
-        <v>1.10418754</v>
+        <v>1.013696646477194</v>
       </c>
       <c r="Q14">
-        <v>1.10418754</v>
+        <v>1.013696646477194</v>
       </c>
       <c r="R14">
-        <v>0.8894189849999997</v>
+        <v>0.9773423357315796</v>
       </c>
       <c r="S14">
-        <v>0.8894189849999997</v>
+        <v>0.9773423357315796</v>
       </c>
       <c r="T14">
-        <v>1.17538054</v>
+        <v>1.028720153729825</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.134</v>
+        <v>1.005967438500199</v>
       </c>
       <c r="D15">
-        <v>0.21380688</v>
+        <v>1.008690389885227</v>
       </c>
       <c r="E15">
-        <v>0.39134565</v>
+        <v>0.9848299741513878</v>
       </c>
       <c r="F15">
-        <v>3.4428622</v>
+        <v>1.022711986353048</v>
       </c>
       <c r="G15">
-        <v>3.4428622</v>
+        <v>1.022711986353048</v>
       </c>
       <c r="H15">
-        <v>0.023300756</v>
+        <v>0.9761227336360272</v>
       </c>
       <c r="I15">
-        <v>0.023300756</v>
+        <v>0.9761227336360272</v>
       </c>
       <c r="J15">
-        <v>0.42160412</v>
+        <v>0.9980795551939257</v>
       </c>
       <c r="K15">
-        <v>3.4428622</v>
+        <v>1.022711986353048</v>
       </c>
       <c r="L15">
-        <v>0.42160412</v>
+        <v>0.9980795551939257</v>
       </c>
       <c r="M15">
-        <v>0.222452438</v>
+        <v>0.9871011444149764</v>
       </c>
       <c r="N15">
-        <v>0.222452438</v>
+        <v>0.9871011444149764</v>
       </c>
       <c r="O15">
-        <v>0.2787501753333333</v>
+        <v>0.9863440876604469</v>
       </c>
       <c r="P15">
-        <v>1.295922358666667</v>
+        <v>0.9989714250610003</v>
       </c>
       <c r="Q15">
-        <v>1.295922358666667</v>
+        <v>0.9989714250610003</v>
       </c>
       <c r="R15">
-        <v>1.832657319</v>
+        <v>1.004906565384012</v>
       </c>
       <c r="S15">
-        <v>1.832657319</v>
+        <v>1.004906565384012</v>
       </c>
       <c r="T15">
-        <v>0.9378199343333332</v>
+        <v>0.9994003462866359</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.2491109</v>
+        <v>0.8725643200000008</v>
       </c>
       <c r="D16">
-        <v>2.7689596</v>
+        <v>1.770108699999998</v>
       </c>
       <c r="E16">
-        <v>0.20651447</v>
+        <v>1.097047600000001</v>
       </c>
       <c r="F16">
-        <v>1.0822396</v>
+        <v>0.24511332</v>
       </c>
       <c r="G16">
-        <v>1.0822396</v>
+        <v>0.24511332</v>
       </c>
       <c r="H16">
-        <v>0.032036222</v>
+        <v>1.8669278</v>
       </c>
       <c r="I16">
-        <v>0.032036222</v>
+        <v>1.8669278</v>
       </c>
       <c r="J16">
-        <v>1.3724463</v>
+        <v>1.200521499999999</v>
       </c>
       <c r="K16">
-        <v>1.0822396</v>
+        <v>0.24511332</v>
       </c>
       <c r="L16">
-        <v>1.3724463</v>
+        <v>1.200521499999999</v>
       </c>
       <c r="M16">
-        <v>0.7022412609999999</v>
+        <v>1.533724649999999</v>
       </c>
       <c r="N16">
-        <v>0.7022412609999999</v>
+        <v>1.533724649999999</v>
       </c>
       <c r="O16">
-        <v>0.5369989973333333</v>
+        <v>1.388165633333333</v>
       </c>
       <c r="P16">
-        <v>0.8289073739999999</v>
+        <v>1.10418754</v>
       </c>
       <c r="Q16">
-        <v>0.828907374</v>
+        <v>1.10418754</v>
       </c>
       <c r="R16">
-        <v>0.8922404305</v>
+        <v>0.8894189849999997</v>
       </c>
       <c r="S16">
-        <v>0.8922404305</v>
+        <v>0.8894189849999997</v>
       </c>
       <c r="T16">
-        <v>1.118551182</v>
+        <v>1.17538054</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0720652</v>
+        <v>1.134</v>
       </c>
       <c r="D17">
-        <v>1.8223291</v>
+        <v>0.21380688</v>
       </c>
       <c r="E17">
-        <v>0.66043898</v>
+        <v>0.39134565</v>
       </c>
       <c r="F17">
-        <v>1.0505035</v>
+        <v>3.4428622</v>
       </c>
       <c r="G17">
-        <v>1.0505035</v>
+        <v>3.4428622</v>
       </c>
       <c r="H17">
-        <v>0.8782308599999999</v>
+        <v>0.023300756</v>
       </c>
       <c r="I17">
-        <v>0.8782308599999999</v>
+        <v>0.023300756</v>
       </c>
       <c r="J17">
-        <v>1.1172741</v>
+        <v>0.42160412</v>
       </c>
       <c r="K17">
-        <v>1.0505035</v>
+        <v>3.4428622</v>
       </c>
       <c r="L17">
-        <v>1.1172741</v>
+        <v>0.42160412</v>
       </c>
       <c r="M17">
-        <v>0.9977524799999999</v>
+        <v>0.222452438</v>
       </c>
       <c r="N17">
-        <v>0.9977524799999999</v>
+        <v>0.222452438</v>
       </c>
       <c r="O17">
-        <v>0.8853146466666666</v>
+        <v>0.2787501753333333</v>
       </c>
       <c r="P17">
-        <v>1.015336153333333</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="Q17">
-        <v>1.015336153333333</v>
+        <v>1.295922358666667</v>
       </c>
       <c r="R17">
-        <v>1.02412799</v>
+        <v>1.832657319</v>
       </c>
       <c r="S17">
-        <v>1.02412799</v>
+        <v>1.832657319</v>
       </c>
       <c r="T17">
-        <v>1.10014029</v>
+        <v>0.9378199343333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9883621123287667</v>
+        <v>1.2491109</v>
       </c>
       <c r="D18">
-        <v>0.6863503221917808</v>
+        <v>2.7689596</v>
       </c>
       <c r="E18">
-        <v>1.024913314657534</v>
+        <v>0.20651447</v>
       </c>
       <c r="F18">
-        <v>1.284299527671233</v>
+        <v>1.0822396</v>
       </c>
       <c r="G18">
-        <v>1.284299527671233</v>
+        <v>1.0822396</v>
       </c>
       <c r="H18">
-        <v>0.9465206117260273</v>
+        <v>0.032036222</v>
       </c>
       <c r="I18">
-        <v>0.9465206117260273</v>
+        <v>0.032036222</v>
       </c>
       <c r="J18">
-        <v>0.8885736301369862</v>
+        <v>1.3724463</v>
       </c>
       <c r="K18">
-        <v>1.284299527671233</v>
+        <v>1.0822396</v>
       </c>
       <c r="L18">
-        <v>0.8885736301369862</v>
+        <v>1.3724463</v>
       </c>
       <c r="M18">
-        <v>0.9175471209315067</v>
+        <v>0.7022412609999999</v>
       </c>
       <c r="N18">
-        <v>0.9175471209315067</v>
+        <v>0.7022412609999999</v>
       </c>
       <c r="O18">
-        <v>0.9533358521735159</v>
+        <v>0.5369989973333333</v>
       </c>
       <c r="P18">
-        <v>1.039797923178082</v>
+        <v>0.8289073739999999</v>
       </c>
       <c r="Q18">
-        <v>1.039797923178082</v>
+        <v>0.828907374</v>
       </c>
       <c r="R18">
-        <v>1.10092332430137</v>
+        <v>0.8922404305</v>
       </c>
       <c r="S18">
-        <v>1.10092332430137</v>
+        <v>0.8922404305</v>
       </c>
       <c r="T18">
-        <v>0.9698365864520548</v>
+        <v>1.118551182</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.005530841052632</v>
+        <v>1.0720652</v>
       </c>
       <c r="D19">
-        <v>1.853414268421052</v>
+        <v>1.8223291</v>
       </c>
       <c r="E19">
-        <v>0.8018328494736843</v>
+        <v>0.66043898</v>
       </c>
       <c r="F19">
-        <v>0.7597024536842105</v>
+        <v>1.0505035</v>
       </c>
       <c r="G19">
-        <v>0.7597024536842105</v>
+        <v>1.0505035</v>
       </c>
       <c r="H19">
-        <v>1.210274136421053</v>
+        <v>0.8782308599999999</v>
       </c>
       <c r="I19">
-        <v>1.210274136421053</v>
+        <v>0.8782308599999999</v>
       </c>
       <c r="J19">
-        <v>1.14886451</v>
+        <v>1.1172741</v>
       </c>
       <c r="K19">
-        <v>0.7597024536842105</v>
+        <v>1.0505035</v>
       </c>
       <c r="L19">
-        <v>1.14886451</v>
+        <v>1.1172741</v>
       </c>
       <c r="M19">
-        <v>1.179569323210526</v>
+        <v>0.9977524799999999</v>
       </c>
       <c r="N19">
-        <v>1.179569323210526</v>
+        <v>0.9977524799999999</v>
       </c>
       <c r="O19">
-        <v>1.053657165298246</v>
+        <v>0.8853146466666666</v>
       </c>
       <c r="P19">
-        <v>1.039613700035088</v>
+        <v>1.015336153333333</v>
       </c>
       <c r="Q19">
-        <v>1.039613700035088</v>
+        <v>1.015336153333333</v>
       </c>
       <c r="R19">
-        <v>0.9696358884473684</v>
+        <v>1.02412799</v>
       </c>
       <c r="S19">
-        <v>0.9696358884473684</v>
+        <v>1.02412799</v>
       </c>
       <c r="T19">
-        <v>1.129936509842105</v>
+        <v>1.10014029</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.138605148421053</v>
+        <v>0.9883621123287667</v>
       </c>
       <c r="D20">
-        <v>1.192750551052632</v>
+        <v>0.6863503221917808</v>
       </c>
       <c r="E20">
-        <v>0.6701385515789475</v>
+        <v>1.024913314657534</v>
       </c>
       <c r="F20">
-        <v>1.378430999473684</v>
+        <v>1.284299527671233</v>
       </c>
       <c r="G20">
-        <v>1.378430999473684</v>
+        <v>1.284299527671233</v>
       </c>
       <c r="H20">
-        <v>0.4639429711578947</v>
+        <v>0.9465206117260273</v>
       </c>
       <c r="I20">
-        <v>0.4639429711578947</v>
+        <v>0.9465206117260273</v>
       </c>
       <c r="J20">
-        <v>1.060011593157895</v>
+        <v>0.8885736301369862</v>
       </c>
       <c r="K20">
-        <v>1.378430999473684</v>
+        <v>1.284299527671233</v>
       </c>
       <c r="L20">
-        <v>1.060011593157895</v>
+        <v>0.8885736301369862</v>
       </c>
       <c r="M20">
-        <v>0.7619772821578947</v>
+        <v>0.9175471209315067</v>
       </c>
       <c r="N20">
-        <v>0.7619772821578947</v>
+        <v>0.9175471209315067</v>
       </c>
       <c r="O20">
-        <v>0.7313643719649123</v>
+        <v>0.9533358521735159</v>
       </c>
       <c r="P20">
-        <v>0.9674618545964911</v>
+        <v>1.039797923178082</v>
       </c>
       <c r="Q20">
-        <v>0.9674618545964911</v>
+        <v>1.039797923178082</v>
       </c>
       <c r="R20">
-        <v>1.070204140815789</v>
+        <v>1.10092332430137</v>
       </c>
       <c r="S20">
-        <v>1.070204140815789</v>
+        <v>1.10092332430137</v>
       </c>
       <c r="T20">
-        <v>0.9839799691403509</v>
+        <v>0.9698365864520548</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9279295441835341</v>
+        <v>1.005530841052632</v>
       </c>
       <c r="D21">
-        <v>1.166244549060898</v>
+        <v>1.853414268421052</v>
       </c>
       <c r="E21">
-        <v>1.101895647005625</v>
+        <v>0.8018328494736843</v>
       </c>
       <c r="F21">
-        <v>0.7594890053520396</v>
+        <v>0.7597024536842105</v>
       </c>
       <c r="G21">
-        <v>0.7594890053520396</v>
+        <v>0.7597024536842105</v>
       </c>
       <c r="H21">
-        <v>1.440559545107162</v>
+        <v>1.210274136421053</v>
       </c>
       <c r="I21">
-        <v>1.440559545107162</v>
+        <v>1.210274136421053</v>
       </c>
       <c r="J21">
-        <v>0.992844387141834</v>
+        <v>1.14886451</v>
       </c>
       <c r="K21">
-        <v>0.7594890053520396</v>
+        <v>0.7597024536842105</v>
       </c>
       <c r="L21">
-        <v>0.992844387141834</v>
+        <v>1.14886451</v>
       </c>
       <c r="M21">
-        <v>1.216701966124498</v>
+        <v>1.179569323210526</v>
       </c>
       <c r="N21">
-        <v>1.216701966124498</v>
+        <v>1.179569323210526</v>
       </c>
       <c r="O21">
-        <v>1.178433193084874</v>
+        <v>1.053657165298246</v>
       </c>
       <c r="P21">
-        <v>1.064297645867012</v>
+        <v>1.039613700035088</v>
       </c>
       <c r="Q21">
-        <v>1.064297645867012</v>
+        <v>1.039613700035088</v>
       </c>
       <c r="R21">
-        <v>0.9880954857382689</v>
+        <v>0.9696358884473684</v>
       </c>
       <c r="S21">
-        <v>0.9880954857382689</v>
+        <v>0.9696358884473684</v>
       </c>
       <c r="T21">
-        <v>1.064827112975182</v>
+        <v>1.129936509842105</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.003399005809783</v>
+        <v>1.138605148421053</v>
       </c>
       <c r="D22">
-        <v>0.8368033757414323</v>
+        <v>1.192750551052632</v>
       </c>
       <c r="E22">
-        <v>1.040837308069024</v>
+        <v>0.6701385515789475</v>
       </c>
       <c r="F22">
-        <v>1.018211072495288</v>
+        <v>1.378430999473684</v>
       </c>
       <c r="G22">
-        <v>1.018211072495288</v>
+        <v>1.378430999473684</v>
       </c>
       <c r="H22">
-        <v>0.8597309207966093</v>
+        <v>0.4639429711578947</v>
       </c>
       <c r="I22">
-        <v>0.8597309207966093</v>
+        <v>0.4639429711578947</v>
       </c>
       <c r="J22">
-        <v>0.9981067985513478</v>
+        <v>1.060011593157895</v>
       </c>
       <c r="K22">
-        <v>1.018211072495288</v>
+        <v>1.378430999473684</v>
       </c>
       <c r="L22">
-        <v>0.9981067985513478</v>
+        <v>1.060011593157895</v>
       </c>
       <c r="M22">
-        <v>0.9289188596739786</v>
+        <v>0.7619772821578947</v>
       </c>
       <c r="N22">
-        <v>0.9289188596739786</v>
+        <v>0.7619772821578947</v>
       </c>
       <c r="O22">
-        <v>0.9662250091389938</v>
+        <v>0.7313643719649123</v>
       </c>
       <c r="P22">
-        <v>0.958682930614415</v>
+        <v>0.9674618545964911</v>
       </c>
       <c r="Q22">
-        <v>0.9586829306144149</v>
+        <v>0.9674618545964911</v>
       </c>
       <c r="R22">
-        <v>0.9735649660846331</v>
+        <v>1.070204140815789</v>
       </c>
       <c r="S22">
-        <v>0.9735649660846331</v>
+        <v>1.070204140815789</v>
       </c>
       <c r="T22">
-        <v>0.9595147469105806</v>
+        <v>0.9839799691403509</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.010562656342278</v>
+        <v>0.9279295441835341</v>
       </c>
       <c r="D23">
-        <v>0.6076480114475263</v>
+        <v>1.166244549060898</v>
       </c>
       <c r="E23">
-        <v>1.042499214400601</v>
+        <v>1.101895647005625</v>
       </c>
       <c r="F23">
-        <v>1.226152087430778</v>
+        <v>0.7594890053520396</v>
       </c>
       <c r="G23">
-        <v>1.226152087430778</v>
+        <v>0.7594890053520396</v>
       </c>
       <c r="H23">
-        <v>0.8135648193026975</v>
+        <v>1.440559545107162</v>
       </c>
       <c r="I23">
-        <v>0.8135648193026975</v>
+        <v>1.440559545107162</v>
       </c>
       <c r="J23">
-        <v>0.9195313905494017</v>
+        <v>0.992844387141834</v>
       </c>
       <c r="K23">
-        <v>1.226152087430778</v>
+        <v>0.7594890053520396</v>
       </c>
       <c r="L23">
-        <v>0.9195313905494017</v>
+        <v>0.992844387141834</v>
       </c>
       <c r="M23">
-        <v>0.8665481049260496</v>
+        <v>1.216701966124498</v>
       </c>
       <c r="N23">
-        <v>0.8665481049260496</v>
+        <v>1.216701966124498</v>
       </c>
       <c r="O23">
-        <v>0.9251984747509002</v>
+        <v>1.178433193084874</v>
       </c>
       <c r="P23">
-        <v>0.9864160990942925</v>
+        <v>1.064297645867012</v>
       </c>
       <c r="Q23">
-        <v>0.9864160990942925</v>
+        <v>1.064297645867012</v>
       </c>
       <c r="R23">
-        <v>1.046350096178414</v>
+        <v>0.9880954857382689</v>
       </c>
       <c r="S23">
-        <v>1.046350096178414</v>
+        <v>0.9880954857382689</v>
       </c>
       <c r="T23">
-        <v>0.9366596965788805</v>
+        <v>1.064827112975182</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9769692938969803</v>
+        <v>1.003399005809783</v>
       </c>
       <c r="D24">
-        <v>1.146773738040237</v>
+        <v>0.8368033757414323</v>
       </c>
       <c r="E24">
-        <v>1.001305353144287</v>
+        <v>1.040837308069024</v>
       </c>
       <c r="F24">
-        <v>0.9259020730545918</v>
+        <v>1.018211072495288</v>
       </c>
       <c r="G24">
-        <v>0.9259020730545918</v>
+        <v>1.018211072495288</v>
       </c>
       <c r="H24">
-        <v>1.19622858816455</v>
+        <v>0.8597309207966093</v>
       </c>
       <c r="I24">
-        <v>1.19622858816455</v>
+        <v>0.8597309207966093</v>
       </c>
       <c r="J24">
-        <v>0.9980379874609863</v>
+        <v>0.9981067985513478</v>
       </c>
       <c r="K24">
-        <v>0.9259020730545918</v>
+        <v>1.018211072495288</v>
       </c>
       <c r="L24">
-        <v>0.9980379874609863</v>
+        <v>0.9981067985513478</v>
       </c>
       <c r="M24">
-        <v>1.097133287812768</v>
+        <v>0.9289188596739786</v>
       </c>
       <c r="N24">
-        <v>1.097133287812768</v>
+        <v>0.9289188596739786</v>
       </c>
       <c r="O24">
-        <v>1.065190642923275</v>
+        <v>0.9662250091389938</v>
       </c>
       <c r="P24">
-        <v>1.04005621622671</v>
+        <v>0.958682930614415</v>
       </c>
       <c r="Q24">
-        <v>1.04005621622671</v>
+        <v>0.9586829306144149</v>
       </c>
       <c r="R24">
-        <v>1.01151768043368</v>
+        <v>0.9735649660846331</v>
       </c>
       <c r="S24">
-        <v>1.01151768043368</v>
+        <v>0.9735649660846331</v>
       </c>
       <c r="T24">
-        <v>1.040869505626939</v>
+        <v>0.9595147469105806</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.137013518901693</v>
+        <v>1.010562656342278</v>
       </c>
       <c r="D25">
-        <v>0.876206697063997</v>
+        <v>0.6076480114475263</v>
       </c>
       <c r="E25">
-        <v>0.7303100739457405</v>
+        <v>1.042499214400601</v>
       </c>
       <c r="F25">
-        <v>1.538037954437502</v>
+        <v>1.226152087430778</v>
       </c>
       <c r="G25">
-        <v>1.538037954437502</v>
+        <v>1.226152087430778</v>
       </c>
       <c r="H25">
-        <v>0.3456270970246729</v>
+        <v>0.8135648193026975</v>
       </c>
       <c r="I25">
-        <v>0.3456270970246729</v>
+        <v>0.8135648193026975</v>
       </c>
       <c r="J25">
-        <v>0.9671687472778617</v>
+        <v>0.9195313905494017</v>
       </c>
       <c r="K25">
-        <v>1.538037954437502</v>
+        <v>1.226152087430778</v>
       </c>
       <c r="L25">
-        <v>0.9671687472778617</v>
+        <v>0.9195313905494017</v>
       </c>
       <c r="M25">
-        <v>0.6563979221512672</v>
+        <v>0.8665481049260496</v>
       </c>
       <c r="N25">
-        <v>0.6563979221512672</v>
+        <v>0.8665481049260496</v>
       </c>
       <c r="O25">
-        <v>0.6810353060827583</v>
+        <v>0.9251984747509002</v>
       </c>
       <c r="P25">
-        <v>0.9502779329133456</v>
+        <v>0.9864160990942925</v>
       </c>
       <c r="Q25">
-        <v>0.9502779329133456</v>
+        <v>0.9864160990942925</v>
       </c>
       <c r="R25">
-        <v>1.097217938294385</v>
+        <v>1.046350096178414</v>
       </c>
       <c r="S25">
-        <v>1.097217938294385</v>
+        <v>1.046350096178414</v>
       </c>
       <c r="T25">
-        <v>0.9323940147752446</v>
+        <v>0.9366596965788805</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.022788678436913</v>
+        <v>0.9769692938969803</v>
       </c>
       <c r="D26">
-        <v>1.252766798361946</v>
+        <v>1.146773738040237</v>
       </c>
       <c r="E26">
-        <v>0.9488432388393743</v>
+        <v>1.001305353144287</v>
       </c>
       <c r="F26">
-        <v>0.8327873379431808</v>
+        <v>0.9259020730545918</v>
       </c>
       <c r="G26">
-        <v>0.8327873379431808</v>
+        <v>0.9259020730545918</v>
       </c>
       <c r="H26">
-        <v>0.9184771135653895</v>
+        <v>1.19622858816455</v>
       </c>
       <c r="I26">
-        <v>0.9184771135653895</v>
+        <v>1.19622858816455</v>
       </c>
       <c r="J26">
-        <v>1.103828430616287</v>
+        <v>0.9980379874609863</v>
       </c>
       <c r="K26">
-        <v>0.8327873379431808</v>
+        <v>0.9259020730545918</v>
       </c>
       <c r="L26">
-        <v>1.103828430616287</v>
+        <v>0.9980379874609863</v>
       </c>
       <c r="M26">
-        <v>1.011152772090838</v>
+        <v>1.097133287812768</v>
       </c>
       <c r="N26">
-        <v>1.011152772090838</v>
+        <v>1.097133287812768</v>
       </c>
       <c r="O26">
-        <v>0.9903829276736836</v>
+        <v>1.065190642923275</v>
       </c>
       <c r="P26">
-        <v>0.9516976273749526</v>
+        <v>1.04005621622671</v>
       </c>
       <c r="Q26">
-        <v>0.9516976273749526</v>
+        <v>1.04005621622671</v>
       </c>
       <c r="R26">
-        <v>0.9219700550170096</v>
+        <v>1.01151768043368</v>
       </c>
       <c r="S26">
-        <v>0.9219700550170096</v>
+        <v>1.01151768043368</v>
       </c>
       <c r="T26">
-        <v>1.013248599627182</v>
+        <v>1.040869505626939</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9925017200491179</v>
+        <v>1.137013518901693</v>
       </c>
       <c r="D27">
-        <v>0.9857577545732567</v>
+        <v>0.876206697063997</v>
       </c>
       <c r="E27">
-        <v>0.9886782788794876</v>
+        <v>0.7303100739457405</v>
       </c>
       <c r="F27">
-        <v>1.064187494965505</v>
+        <v>1.538037954437502</v>
       </c>
       <c r="G27">
-        <v>1.064187494965505</v>
+        <v>1.538037954437502</v>
       </c>
       <c r="H27">
-        <v>1.111936335554146</v>
+        <v>0.3456270970246729</v>
       </c>
       <c r="I27">
-        <v>1.111936335554146</v>
+        <v>0.3456270970246729</v>
       </c>
       <c r="J27">
-        <v>0.9618770025335127</v>
+        <v>0.9671687472778617</v>
       </c>
       <c r="K27">
-        <v>1.064187494965505</v>
+        <v>1.538037954437502</v>
       </c>
       <c r="L27">
-        <v>0.9618770025335127</v>
+        <v>0.9671687472778617</v>
       </c>
       <c r="M27">
-        <v>1.036906669043829</v>
+        <v>0.6563979221512672</v>
       </c>
       <c r="N27">
-        <v>1.036906669043829</v>
+        <v>0.6563979221512672</v>
       </c>
       <c r="O27">
-        <v>1.020830538989049</v>
+        <v>0.6810353060827583</v>
       </c>
       <c r="P27">
-        <v>1.046000277684388</v>
+        <v>0.9502779329133456</v>
       </c>
       <c r="Q27">
-        <v>1.046000277684388</v>
+        <v>0.9502779329133456</v>
       </c>
       <c r="R27">
-        <v>1.050547082004667</v>
+        <v>1.097217938294385</v>
       </c>
       <c r="S27">
-        <v>1.050547082004667</v>
+        <v>1.097217938294385</v>
       </c>
       <c r="T27">
-        <v>1.017489764425838</v>
+        <v>0.9323940147752446</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.030448369895988</v>
+        <v>1.022788678436913</v>
       </c>
       <c r="D28">
-        <v>1.04109870623943</v>
+        <v>1.252766798361946</v>
       </c>
       <c r="E28">
-        <v>0.9450875845562311</v>
+        <v>0.9488432388393743</v>
       </c>
       <c r="F28">
-        <v>1.006254783630723</v>
+        <v>0.8327873379431808</v>
       </c>
       <c r="G28">
-        <v>1.006254783630723</v>
+        <v>0.8327873379431808</v>
       </c>
       <c r="H28">
-        <v>0.908474684501443</v>
+        <v>0.9184771135653895</v>
       </c>
       <c r="I28">
-        <v>0.908474684501443</v>
+        <v>0.9184771135653895</v>
       </c>
       <c r="J28">
-        <v>1.041072458202626</v>
+        <v>1.103828430616287</v>
       </c>
       <c r="K28">
-        <v>1.006254783630723</v>
+        <v>0.8327873379431808</v>
       </c>
       <c r="L28">
-        <v>1.041072458202626</v>
+        <v>1.103828430616287</v>
       </c>
       <c r="M28">
-        <v>0.9747735713520345</v>
+        <v>1.011152772090838</v>
       </c>
       <c r="N28">
-        <v>0.9747735713520345</v>
+        <v>1.011152772090838</v>
       </c>
       <c r="O28">
-        <v>0.9648782424201</v>
+        <v>0.9903829276736836</v>
       </c>
       <c r="P28">
-        <v>0.9852673087782641</v>
+        <v>0.9516976273749526</v>
       </c>
       <c r="Q28">
-        <v>0.9852673087782641</v>
+        <v>0.9516976273749526</v>
       </c>
       <c r="R28">
-        <v>0.9905141774913788</v>
+        <v>0.9219700550170096</v>
       </c>
       <c r="S28">
-        <v>0.9905141774913788</v>
+        <v>0.9219700550170096</v>
       </c>
       <c r="T28">
-        <v>0.99540609783774</v>
+        <v>1.013248599627182</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9925017200491179</v>
+      </c>
+      <c r="D29">
+        <v>0.9857577545732567</v>
+      </c>
+      <c r="E29">
+        <v>0.9886782788794876</v>
+      </c>
+      <c r="F29">
+        <v>1.064187494965505</v>
+      </c>
+      <c r="G29">
+        <v>1.064187494965505</v>
+      </c>
+      <c r="H29">
+        <v>1.111936335554146</v>
+      </c>
+      <c r="I29">
+        <v>1.111936335554146</v>
+      </c>
+      <c r="J29">
+        <v>0.9618770025335127</v>
+      </c>
+      <c r="K29">
+        <v>1.064187494965505</v>
+      </c>
+      <c r="L29">
+        <v>0.9618770025335127</v>
+      </c>
+      <c r="M29">
+        <v>1.036906669043829</v>
+      </c>
+      <c r="N29">
+        <v>1.036906669043829</v>
+      </c>
+      <c r="O29">
+        <v>1.020830538989049</v>
+      </c>
+      <c r="P29">
+        <v>1.046000277684388</v>
+      </c>
+      <c r="Q29">
+        <v>1.046000277684388</v>
+      </c>
+      <c r="R29">
+        <v>1.050547082004667</v>
+      </c>
+      <c r="S29">
+        <v>1.050547082004667</v>
+      </c>
+      <c r="T29">
+        <v>1.017489764425838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.030448369895988</v>
+      </c>
+      <c r="D30">
+        <v>1.04109870623943</v>
+      </c>
+      <c r="E30">
+        <v>0.9450875845562311</v>
+      </c>
+      <c r="F30">
+        <v>1.006254783630723</v>
+      </c>
+      <c r="G30">
+        <v>1.006254783630723</v>
+      </c>
+      <c r="H30">
+        <v>0.908474684501443</v>
+      </c>
+      <c r="I30">
+        <v>0.908474684501443</v>
+      </c>
+      <c r="J30">
+        <v>1.041072458202626</v>
+      </c>
+      <c r="K30">
+        <v>1.006254783630723</v>
+      </c>
+      <c r="L30">
+        <v>1.041072458202626</v>
+      </c>
+      <c r="M30">
+        <v>0.9747735713520345</v>
+      </c>
+      <c r="N30">
+        <v>0.9747735713520345</v>
+      </c>
+      <c r="O30">
+        <v>0.9648782424201</v>
+      </c>
+      <c r="P30">
+        <v>0.9852673087782641</v>
+      </c>
+      <c r="Q30">
+        <v>0.9852673087782641</v>
+      </c>
+      <c r="R30">
+        <v>0.9905141774913788</v>
+      </c>
+      <c r="S30">
+        <v>0.9905141774913788</v>
+      </c>
+      <c r="T30">
+        <v>0.99540609783774</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.018597256835603</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.05515999306867</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9103740932803251</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.185448799620363</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.185448799620363</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9887668686133244</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9887668686133244</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9550628296041742</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.185448799620363</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9550628296041742</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9719148491087493</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9719148491087493</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9514012638326079</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.043092832612621</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.043092832612621</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.078681824364556</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.078681824364556</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.01890164017041</v>
       </c>
     </row>
